--- a/kws/kws-priradene.xlsx
+++ b/kws/kws-priradene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matusrebros/super/kws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1103EF20-8B36-C44E-8383-0E779F432728}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF105C70-FB2F-8441-B10A-0145F2CC16A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1460" windowWidth="28040" windowHeight="17440" xr2:uid="{24AB14E7-762D-AE4E-B4A7-B13D6B471532}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="368">
   <si>
     <t>#</t>
   </si>
@@ -1113,13 +1113,22 @@
     <t>$0.94</t>
   </si>
   <si>
-    <t>PRVOTNÁ FÁZA</t>
-  </si>
-  <si>
-    <t>FINÁLNA FÁZA</t>
-  </si>
-  <si>
-    <t>DRUHOTNÁ FÁZA</t>
+    <t>ROZDELENÉ PRE PODSTRÁNKY</t>
+  </si>
+  <si>
+    <t>VYTVORENÝ OBSAH</t>
+  </si>
+  <si>
+    <t>FINÁLNA FÁZA (SKONTROLOVANÉ)</t>
+  </si>
+  <si>
+    <t>web deisgn</t>
+  </si>
+  <si>
+    <t>Webová analytika</t>
+  </si>
+  <si>
+    <t>webová analytika</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1210,51 +1219,1236 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
+  <dxfs count="200">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1420,157 +2614,157 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E1CF4BF-75F8-9140-B94C-5EB0541D09F5}" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E1CF4BF-75F8-9140-B94C-5EB0541D09F5}" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0" dataDxfId="199">
   <autoFilter ref="A2:F14" xr:uid="{74E50701-1A0A-894E-9143-9FEFF3FB7E7D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7E2F558B-F58E-0C4D-BB56-5AA65B95B592}" name="#"/>
     <tableColumn id="2" xr3:uid="{4627E11D-6659-0946-969B-79A6AEF6B3C9}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{C23F3803-D413-0B4B-B9FA-FE2BB29F06E6}" name="VOLUME" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{B58DF622-F89E-8941-B0FC-583C368F9B99}" name="CPC" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{886F3236-A825-CE4D-9DDB-013936859674}" name="PD" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{5198577F-51C6-9246-8B59-7EF18AE961D7}" name="SD" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{C23F3803-D413-0B4B-B9FA-FE2BB29F06E6}" name="VOLUME" dataDxfId="198"/>
+    <tableColumn id="4" xr3:uid="{B58DF622-F89E-8941-B0FC-583C368F9B99}" name="CPC" dataDxfId="197"/>
+    <tableColumn id="5" xr3:uid="{886F3236-A825-CE4D-9DDB-013936859674}" name="PD" dataDxfId="196"/>
+    <tableColumn id="6" xr3:uid="{5198577F-51C6-9246-8B59-7EF18AE961D7}" name="SD" dataDxfId="195"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E7A93C3E-0A6E-9547-B6AC-70F5053DA86D}" name="Table10" displayName="Table10" ref="A99:F103" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E7A93C3E-0A6E-9547-B6AC-70F5053DA86D}" name="Table10" displayName="Table10" ref="A99:F103" totalsRowShown="0" headerRowDxfId="163">
   <autoFilter ref="A99:F103" xr:uid="{E7E42209-AA07-9B40-B6FB-8962E55B2429}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E61304BA-FD70-7B4A-8F8F-2353A025E3E0}" name="#"/>
-    <tableColumn id="2" xr3:uid="{26DE8984-F2E3-2D45-A01C-DC4E4BFCE41E}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{F032AA5E-BBEA-0F4D-A120-66BB691369E0}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{1F751F65-1511-014F-93F8-FAF144C07979}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{74A13CC7-DD15-F54C-B7A4-E7AB3E4E9E2D}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{A6B5B915-D592-D44D-A3F7-93AF5CF101F3}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{26DE8984-F2E3-2D45-A01C-DC4E4BFCE41E}" name="KW" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{F032AA5E-BBEA-0F4D-A120-66BB691369E0}" name="VOLUME" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{1F751F65-1511-014F-93F8-FAF144C07979}" name="CPC" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{74A13CC7-DD15-F54C-B7A4-E7AB3E4E9E2D}" name="PD" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{A6B5B915-D592-D44D-A3F7-93AF5CF101F3}" name="SD" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8E8E6AE0-16A0-4D47-901E-E2E6BFD9409A}" name="Table11" displayName="Table11" ref="A107:F109" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8E8E6AE0-16A0-4D47-901E-E2E6BFD9409A}" name="Table11" displayName="Table11" ref="A107:F109" totalsRowShown="0" headerRowDxfId="162">
   <autoFilter ref="A107:F109" xr:uid="{4305766E-D3AF-6441-ABB3-69758F113174}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A6788509-2311-1146-8FFA-EF930A8EA465}" name="#"/>
-    <tableColumn id="2" xr3:uid="{ED20E06E-FCF5-644F-90BB-58B5133565AF}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{18E36775-FB96-CA49-9F91-2DA953D7DB35}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{6CCE875C-4F2A-8A4B-9BF7-EDECB81E9155}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{CDCADAC3-AE5F-7C42-8849-43DF27FEA349}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{E76A6225-F40D-5E45-A05D-30DF3A9ADF7D}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{ED20E06E-FCF5-644F-90BB-58B5133565AF}" name="KW" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{18E36775-FB96-CA49-9F91-2DA953D7DB35}" name="VOLUME" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{6CCE875C-4F2A-8A4B-9BF7-EDECB81E9155}" name="CPC" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{CDCADAC3-AE5F-7C42-8849-43DF27FEA349}" name="PD" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{E76A6225-F40D-5E45-A05D-30DF3A9ADF7D}" name="SD" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1CAF062D-CFD8-C54C-ADD5-C31993589BBC}" name="Table12" displayName="Table12" ref="A112:F114" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1CAF062D-CFD8-C54C-ADD5-C31993589BBC}" name="Table12" displayName="Table12" ref="A112:F114" totalsRowShown="0" headerRowDxfId="161">
   <autoFilter ref="A112:F114" xr:uid="{002C4BF5-9DCC-4542-B22C-088766D48D54}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{14DFE193-5DF2-7B46-8D37-E4B852686543}" name="#"/>
-    <tableColumn id="2" xr3:uid="{22120B33-C216-C849-8733-271D62D42637}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{28D313CE-9A65-9C4C-B37F-26FD2CB8F220}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{9FD75F01-6BEE-6740-8E60-27D73CC2C6C6}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{D3C31E8C-6969-9D48-877D-66630FE990C7}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{485A3899-A8D1-9C47-AED5-54F7AB5FB17D}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{22120B33-C216-C849-8733-271D62D42637}" name="KW" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{28D313CE-9A65-9C4C-B37F-26FD2CB8F220}" name="VOLUME" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{9FD75F01-6BEE-6740-8E60-27D73CC2C6C6}" name="CPC" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{D3C31E8C-6969-9D48-877D-66630FE990C7}" name="PD" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{485A3899-A8D1-9C47-AED5-54F7AB5FB17D}" name="SD" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3288C749-29DB-C248-A15B-C2D6C80E411A}" name="Table13" displayName="Table13" ref="A118:F119" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3288C749-29DB-C248-A15B-C2D6C80E411A}" name="Table13" displayName="Table13" ref="A118:F119" totalsRowShown="0" headerRowDxfId="160">
   <autoFilter ref="A118:F119" xr:uid="{68793F86-3D24-0F4A-990D-C7CF9E15EEEE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C083CA5A-CED1-2544-A924-BF8EEF828141}" name="#"/>
-    <tableColumn id="2" xr3:uid="{DDDCE6E4-079D-8F44-BEDC-2D8E1D809960}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{DF554EFA-9A03-8044-8EA2-F767F7889644}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{41663514-B724-344B-B562-C6FC56BB1299}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{EC53C1B7-E67E-1B41-AF37-C8CD92815570}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{C6B41853-1E9B-8447-B340-4AC432D537BB}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{DDDCE6E4-079D-8F44-BEDC-2D8E1D809960}" name="KW" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{DF554EFA-9A03-8044-8EA2-F767F7889644}" name="VOLUME" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{41663514-B724-344B-B562-C6FC56BB1299}" name="CPC" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{EC53C1B7-E67E-1B41-AF37-C8CD92815570}" name="PD" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{C6B41853-1E9B-8447-B340-4AC432D537BB}" name="SD" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{EB25DF35-48A6-8E41-AF07-9C9F53F94A24}" name="Table14" displayName="Table14" ref="A124:F127" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{EB25DF35-48A6-8E41-AF07-9C9F53F94A24}" name="Table14" displayName="Table14" ref="A124:F127" totalsRowShown="0" headerRowDxfId="159">
   <autoFilter ref="A124:F127" xr:uid="{07B063AC-5CC6-6F49-98B4-7F9FF1957CE3}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3BA58D70-94CD-EF48-B010-983DDE9975B7}" name="#"/>
-    <tableColumn id="2" xr3:uid="{FC742E95-A6F7-D44B-8AAC-836BB2862645}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{2A66C610-D5BD-994A-9D38-C95667CC3C2F}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{6473FBC7-D46E-B941-80F5-CACAB22AAF43}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{73211850-4DBC-6343-A290-B22C77613CB4}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{895FF0DC-6096-7F48-B707-30E1C37B975B}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{FC742E95-A6F7-D44B-8AAC-836BB2862645}" name="KW" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{2A66C610-D5BD-994A-9D38-C95667CC3C2F}" name="VOLUME" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{6473FBC7-D46E-B941-80F5-CACAB22AAF43}" name="CPC" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{73211850-4DBC-6343-A290-B22C77613CB4}" name="PD" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{895FF0DC-6096-7F48-B707-30E1C37B975B}" name="SD" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0E301EB3-0244-BD4E-BE42-7E383DC067A8}" name="Table15" displayName="Table15" ref="A130:F131" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0E301EB3-0244-BD4E-BE42-7E383DC067A8}" name="Table15" displayName="Table15" ref="A130:F131" totalsRowShown="0" headerRowDxfId="158">
   <autoFilter ref="A130:F131" xr:uid="{7305680E-492B-6D41-8A11-2ADF96E886A6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2B20E6D4-326E-7B47-88A6-D7848863753C}" name="#"/>
-    <tableColumn id="2" xr3:uid="{177402D9-0A07-F84F-81D9-540BC822D7F5}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{AE3795E6-7C5C-FC44-92CB-D77E97FE8F39}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{DA1180F6-110E-8043-BE9C-9278D70F8A5F}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{834E0BB8-A662-2340-8C26-906F358988FD}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{3EEF1959-AB35-2C49-B514-927AA19198F9}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{177402D9-0A07-F84F-81D9-540BC822D7F5}" name="KW" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{AE3795E6-7C5C-FC44-92CB-D77E97FE8F39}" name="VOLUME" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{DA1180F6-110E-8043-BE9C-9278D70F8A5F}" name="CPC" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{834E0BB8-A662-2340-8C26-906F358988FD}" name="PD" dataDxfId="106"/>
+    <tableColumn id="6" xr3:uid="{3EEF1959-AB35-2C49-B514-927AA19198F9}" name="SD" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F69D9181-DC29-FC42-A5AD-77A71835AC1B}" name="Table16" displayName="Table16" ref="A134:F135" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F69D9181-DC29-FC42-A5AD-77A71835AC1B}" name="Table16" displayName="Table16" ref="A134:F135" totalsRowShown="0" headerRowDxfId="157">
   <autoFilter ref="A134:F135" xr:uid="{A62F0686-D32F-5A4D-868A-DA1259E3D6B5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F4FEA10C-19CD-BC4A-A256-125D4FDAF276}" name="#"/>
-    <tableColumn id="2" xr3:uid="{CF5ABF10-84A7-8A4B-877E-F37F73BAD95A}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{CFCEB75F-27D4-A241-B5F5-B1ABD9E41043}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{516B962D-2935-9844-B203-5E5153227BE0}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{2E9BE74C-9971-9F44-A8C7-A3D8745FF59E}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{E270E56B-2248-6E45-9837-92FA5FE80197}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{CF5ABF10-84A7-8A4B-877E-F37F73BAD95A}" name="KW" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{CFCEB75F-27D4-A241-B5F5-B1ABD9E41043}" name="VOLUME" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{516B962D-2935-9844-B203-5E5153227BE0}" name="CPC" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{2E9BE74C-9971-9F44-A8C7-A3D8745FF59E}" name="PD" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{E270E56B-2248-6E45-9837-92FA5FE80197}" name="SD" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{CCED5B12-FED4-604A-B637-36938155EAB1}" name="Table17" displayName="Table17" ref="A138:F139" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{CCED5B12-FED4-604A-B637-36938155EAB1}" name="Table17" displayName="Table17" ref="A138:F139" totalsRowShown="0" headerRowDxfId="156">
   <autoFilter ref="A138:F139" xr:uid="{7EE444A1-7AE5-A54E-8997-15CC36FA126B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4CF1A1F9-8026-0543-82EF-3F3CA64F1353}" name="#"/>
-    <tableColumn id="2" xr3:uid="{7B2FBCF4-8EC0-0F46-A8DE-28A6BCC1FE19}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{88F7B4C4-6673-2243-A584-8D737DFC48C6}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{89CC3E3A-4522-FB48-88DA-FB8C58CA5E3F}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{0599F371-B9EB-784E-B7DB-94D246E76605}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{DC38DE6B-9F84-724B-85A4-B7FF531168EF}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{7B2FBCF4-8EC0-0F46-A8DE-28A6BCC1FE19}" name="KW" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{88F7B4C4-6673-2243-A584-8D737DFC48C6}" name="VOLUME" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{89CC3E3A-4522-FB48-88DA-FB8C58CA5E3F}" name="CPC" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{0599F371-B9EB-784E-B7DB-94D246E76605}" name="PD" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{DC38DE6B-9F84-724B-85A4-B7FF531168EF}" name="SD" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E4880F1C-B94D-D74B-9915-22097FC6285F}" name="Table18" displayName="Table18" ref="A143:F144" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E4880F1C-B94D-D74B-9915-22097FC6285F}" name="Table18" displayName="Table18" ref="A143:F144" totalsRowShown="0" headerRowDxfId="155">
   <autoFilter ref="A143:F144" xr:uid="{E6DE82C3-2D0B-4F4D-8F39-D1DA689D19CB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B662F13E-B492-214B-8931-01BDCEDCC41E}" name="#"/>
-    <tableColumn id="2" xr3:uid="{57C44F1E-A8BB-3F4E-8DAE-52F8B56261D9}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{B091047A-9F2F-3541-BADA-AD774EBE5331}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{12FA177C-FBC7-C640-8B48-C4B014FB6A20}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{7411FCA2-7CE8-C140-947E-6B7E54883872}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{DD369330-2665-6340-9421-371896A214BF}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{57C44F1E-A8BB-3F4E-8DAE-52F8B56261D9}" name="KW" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{B091047A-9F2F-3541-BADA-AD774EBE5331}" name="VOLUME" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{12FA177C-FBC7-C640-8B48-C4B014FB6A20}" name="CPC" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{7411FCA2-7CE8-C140-947E-6B7E54883872}" name="PD" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{DD369330-2665-6340-9421-371896A214BF}" name="SD" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4C564B1B-0DD7-D347-A188-900BB14F90A1}" name="Table19" displayName="Table19" ref="A147:F148" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4C564B1B-0DD7-D347-A188-900BB14F90A1}" name="Table19" displayName="Table19" ref="A147:F148" totalsRowShown="0" headerRowDxfId="154">
   <autoFilter ref="A147:F148" xr:uid="{82E2DF75-CE68-2049-A332-A8A898978DEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2EE0FD00-9808-A048-A1D7-26DF234957CF}" name="#"/>
@@ -1585,37 +2779,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D48F073F-2499-0248-B6F9-6DCD366691D7}" name="Table2" displayName="Table2" ref="A20:F28" totalsRowShown="0" headerRowDxfId="51" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D48F073F-2499-0248-B6F9-6DCD366691D7}" name="Table2" displayName="Table2" ref="A20:F28" totalsRowShown="0" headerRowDxfId="193" dataDxfId="194">
   <autoFilter ref="A20:F28" xr:uid="{2A107C8F-0360-1140-9931-4B2DFB244DB4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{132A3B5B-67A2-6F4C-9B7C-68E1557A365C}" name="#"/>
-    <tableColumn id="2" xr3:uid="{F9827C56-5234-A445-8857-7911661EBCA4}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{EEC35316-54F0-924C-882C-651D0C826C70}" name="VOLUME" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{F6EA3307-AF1D-754B-85D2-A00BB081CB66}" name="CPC" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{25251231-2500-B24D-9F4D-92B0EDCB914B}" name="PD" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{A081A408-F986-3A44-81B9-B87E91DB643C}" name="SD" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{F9827C56-5234-A445-8857-7911661EBCA4}" name="KW" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{EEC35316-54F0-924C-882C-651D0C826C70}" name="VOLUME" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{F6EA3307-AF1D-754B-85D2-A00BB081CB66}" name="CPC" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{25251231-2500-B24D-9F4D-92B0EDCB914B}" name="PD" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{A081A408-F986-3A44-81B9-B87E91DB643C}" name="SD" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{AE8F46DB-ECF7-1546-80E0-03AB32B24A7F}" name="Table20" displayName="Table20" ref="A152:F153" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{AE8F46DB-ECF7-1546-80E0-03AB32B24A7F}" name="Table20" displayName="Table20" ref="A152:F153" totalsRowShown="0" headerRowDxfId="153">
   <autoFilter ref="A152:F153" xr:uid="{F2B18E16-58EF-5D41-8091-EF95A67FD6D4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F0A66B5C-E51A-064B-8CD8-7953EF424F1D}" name="#"/>
-    <tableColumn id="2" xr3:uid="{67E0028D-9048-A946-85E9-9C0E237208C7}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{626E579B-E951-9646-8C5F-693F94A026AF}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{C79CF989-127A-CE4A-A7A5-FD447EECFD8F}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{B3D4E7E5-3492-4247-8FB1-608779BBE7A5}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{1140D62C-01F3-1F4A-84BA-7E074556E233}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{67E0028D-9048-A946-85E9-9C0E237208C7}" name="KW" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{626E579B-E951-9646-8C5F-693F94A026AF}" name="VOLUME" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{C79CF989-127A-CE4A-A7A5-FD447EECFD8F}" name="CPC" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{B3D4E7E5-3492-4247-8FB1-608779BBE7A5}" name="PD" dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{1140D62C-01F3-1F4A-84BA-7E074556E233}" name="SD" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{72195EDD-4C36-8D43-A297-8A3055ABC67C}" name="Table21" displayName="Table21" ref="A157:F160" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{72195EDD-4C36-8D43-A297-8A3055ABC67C}" name="Table21" displayName="Table21" ref="A157:F160" totalsRowShown="0" headerRowDxfId="152">
   <autoFilter ref="A157:F160" xr:uid="{0F1F4D22-D736-AE47-A5E1-B5F142D02E52}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{525EECB4-0784-8D48-B16D-C694E9D9F3B8}" name="#"/>
@@ -1630,38 +2824,38 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{153F6715-F770-8740-94D2-11D1476495FA}" name="Table22" displayName="Table22" ref="A164:F166" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{153F6715-F770-8740-94D2-11D1476495FA}" name="Table22" displayName="Table22" ref="A164:F166" totalsRowShown="0" headerRowDxfId="151">
   <autoFilter ref="A164:F166" xr:uid="{7B3DE3F3-BAF0-BF44-A7DA-9DFA68E3DC83}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DE3DBC-AAC4-484C-B044-C601FDAF02DC}" name="#"/>
-    <tableColumn id="2" xr3:uid="{C9A6B1AF-95A9-3645-91A9-222B0825EFB1}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{FB13CD5A-7791-E94E-BF99-B03DB836AA57}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{7E5AC52B-EBF1-4E45-B5A4-45743185D627}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{FA5B254D-C1A4-0740-928B-17E5D705D531}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{47C8AA8C-38E2-BB44-9527-FF94F70F2510}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{C9A6B1AF-95A9-3645-91A9-222B0825EFB1}" name="KW" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{FB13CD5A-7791-E94E-BF99-B03DB836AA57}" name="VOLUME" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{7E5AC52B-EBF1-4E45-B5A4-45743185D627}" name="CPC" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{FA5B254D-C1A4-0740-928B-17E5D705D531}" name="PD" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{47C8AA8C-38E2-BB44-9527-FF94F70F2510}" name="SD" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0782B336-FE7D-CC46-A30B-0629DECFFF6A}" name="Table23" displayName="Table23" ref="A169:F170" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0782B336-FE7D-CC46-A30B-0629DECFFF6A}" name="Table23" displayName="Table23" ref="A169:F170" totalsRowShown="0" headerRowDxfId="150">
   <autoFilter ref="A169:F170" xr:uid="{97A80D7C-2CA8-8948-A0E2-772A6E732068}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2DE3AF2C-F140-7D4F-8B9F-EFA7A54EC4D0}" name="#"/>
-    <tableColumn id="2" xr3:uid="{46B29A82-2A3B-C04C-90EC-B4C152D77495}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{CD259F80-07DF-7F4A-9F6D-7347B1ABA398}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{4D39A03D-9DE9-F343-AEFA-C8FC45D66B39}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{906F2C6B-7E86-8E40-B607-0C6AAE941A07}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{0E1D0FA5-03CD-B04A-B657-31212FE5F18E}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{46B29A82-2A3B-C04C-90EC-B4C152D77495}" name="KW" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{CD259F80-07DF-7F4A-9F6D-7347B1ABA398}" name="VOLUME" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{4D39A03D-9DE9-F343-AEFA-C8FC45D66B39}" name="CPC" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{906F2C6B-7E86-8E40-B607-0C6AAE941A07}" name="PD" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{0E1D0FA5-03CD-B04A-B657-31212FE5F18E}" name="SD" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{6E916308-8172-2F4F-B70D-5F356E66D373}" name="Table24" displayName="Table24" ref="A173:F176" totalsRowShown="0">
-  <autoFilter ref="A173:F176" xr:uid="{57BD9285-E399-1940-94F1-8AFEBE147D59}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{6E916308-8172-2F4F-B70D-5F356E66D373}" name="Table24" displayName="Table24" ref="A173:F177" totalsRowShown="0">
+  <autoFilter ref="A173:F177" xr:uid="{57BD9285-E399-1940-94F1-8AFEBE147D59}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DA99E043-45D3-D747-8993-B99E4C64E3B4}" name="#"/>
     <tableColumn id="2" xr3:uid="{DAC818E9-A641-7E40-89C1-F2E8D34D9833}" name="KW"/>
@@ -1675,8 +2869,8 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{E0B23CD4-DBE7-8948-8F84-152D19DC1CD2}" name="Table25" displayName="Table25" ref="A179:F180" totalsRowShown="0">
-  <autoFilter ref="A179:F180" xr:uid="{8D239E99-0A9B-7940-BECF-DD4766F3562C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{E0B23CD4-DBE7-8948-8F84-152D19DC1CD2}" name="Table25" displayName="Table25" ref="A180:F181" totalsRowShown="0">
+  <autoFilter ref="A180:F181" xr:uid="{8D239E99-0A9B-7940-BECF-DD4766F3562C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{679680AE-6A12-264D-93DA-A3C62351AF2E}" name="#"/>
     <tableColumn id="2" xr3:uid="{4A761668-B2DA-4A48-80D3-9B51C3DB4E78}" name="KW"/>
@@ -1690,23 +2884,23 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{D778290B-6DF4-1542-A245-6A476BE118D1}" name="Table26" displayName="Table26" ref="A183:F184" totalsRowShown="0">
-  <autoFilter ref="A183:F184" xr:uid="{B497B441-E5E6-EB44-8894-1324DA34F533}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{D778290B-6DF4-1542-A245-6A476BE118D1}" name="Table26" displayName="Table26" ref="A184:F185" totalsRowShown="0">
+  <autoFilter ref="A184:F185" xr:uid="{B497B441-E5E6-EB44-8894-1324DA34F533}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D72FC37C-2105-8F4E-98EA-670BBF29CD17}" name="#"/>
-    <tableColumn id="2" xr3:uid="{5E44F6B5-6DF9-5146-AFAA-9C528D4D818D}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{C2FD83C0-C1F3-2949-98F0-E758CDB8BCBA}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{7DA14CC2-991A-C145-B9EB-20DCC2423422}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{650F3EB6-3A8C-ED47-BEF0-19DC9EE4C005}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{D7D380D4-CF29-C844-B40C-D5184EB459EF}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{5E44F6B5-6DF9-5146-AFAA-9C528D4D818D}" name="KW" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C2FD83C0-C1F3-2949-98F0-E758CDB8BCBA}" name="VOLUME" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{7DA14CC2-991A-C145-B9EB-20DCC2423422}" name="CPC" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{650F3EB6-3A8C-ED47-BEF0-19DC9EE4C005}" name="PD" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{D7D380D4-CF29-C844-B40C-D5184EB459EF}" name="SD" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{BA257CB7-3F7F-6843-8123-FD9D6CB87D88}" name="Table27" displayName="Table27" ref="A188:F194" totalsRowShown="0">
-  <autoFilter ref="A188:F194" xr:uid="{C2CDBB6E-102A-AC4B-8C61-D842343A5DF7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{BA257CB7-3F7F-6843-8123-FD9D6CB87D88}" name="Table27" displayName="Table27" ref="A189:F195" totalsRowShown="0">
+  <autoFilter ref="A189:F195" xr:uid="{C2CDBB6E-102A-AC4B-8C61-D842343A5DF7}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{60456599-B7A1-554E-A1D7-226BDAEE981F}" name="#"/>
     <tableColumn id="2" xr3:uid="{0E6AB391-C9B3-2643-A977-BF81F41A3988}" name="KW"/>
@@ -1720,8 +2914,8 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{1A473FC0-3813-D64C-AB37-1F19365194D6}" name="Table28" displayName="Table28" ref="A197:F198" totalsRowShown="0">
-  <autoFilter ref="A197:F198" xr:uid="{1D71E9C6-909F-DD4A-A59E-DBB9478E4425}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{1A473FC0-3813-D64C-AB37-1F19365194D6}" name="Table28" displayName="Table28" ref="A198:F199" totalsRowShown="0">
+  <autoFilter ref="A198:F199" xr:uid="{1D71E9C6-909F-DD4A-A59E-DBB9478E4425}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1FD83210-1A8D-D54C-9337-9A5F24EFD80B}" name="#"/>
     <tableColumn id="2" xr3:uid="{E149A7AB-DBE3-464A-B3C0-29ADF5C79D3C}" name="KW"/>
@@ -1735,38 +2929,38 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{A27D9D1A-FB16-344B-9DCF-1AB583767486}" name="Table29" displayName="Table29" ref="A201:F203" totalsRowShown="0">
-  <autoFilter ref="A201:F203" xr:uid="{79FE5471-718D-D84D-B958-0F7ED66B7A62}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{A27D9D1A-FB16-344B-9DCF-1AB583767486}" name="Table29" displayName="Table29" ref="A202:F204" totalsRowShown="0">
+  <autoFilter ref="A202:F204" xr:uid="{79FE5471-718D-D84D-B958-0F7ED66B7A62}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FDF0208A-0A77-3C40-AF89-BDF5B12E55A8}" name="#"/>
-    <tableColumn id="2" xr3:uid="{E62E53B2-C6FA-F748-B88D-0682053BE258}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{C883B0A8-B5F8-4E40-B0F5-0561B644F681}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{0F94DD56-CE6E-4040-BD92-64EC29767E07}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{9E354F6A-FF22-3342-851E-32F99445E2BA}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{511904F2-7755-F943-8B73-B5D8997F0DF4}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{E62E53B2-C6FA-F748-B88D-0682053BE258}" name="KW" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{C883B0A8-B5F8-4E40-B0F5-0561B644F681}" name="VOLUME" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{0F94DD56-CE6E-4040-BD92-64EC29767E07}" name="CPC" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{9E354F6A-FF22-3342-851E-32F99445E2BA}" name="PD" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{511904F2-7755-F943-8B73-B5D8997F0DF4}" name="SD" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D27A6161-190E-6944-904F-43BED03777DD}" name="Table3" displayName="Table3" ref="A31:F39" totalsRowShown="0" headerRowDxfId="45" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D27A6161-190E-6944-904F-43BED03777DD}" name="Table3" displayName="Table3" ref="A31:F39" totalsRowShown="0" headerRowDxfId="187" dataDxfId="188">
   <autoFilter ref="A31:F39" xr:uid="{BDC9A2E4-574E-EC49-8529-7DB31751E3EA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{09EE696F-DB41-2F48-A130-CE27A90F559F}" name="#"/>
     <tableColumn id="2" xr3:uid="{269AD9DE-D8B1-8045-8983-168EA7049F62}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{F7C59FC9-DF64-FD40-8D2F-EF32939002B1}" name="VOLUME" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{7D2664FE-FC8A-9748-81FA-CCE7A833F5C7}" name="CPC" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{E5657E44-87CE-4E4C-8086-7953652A722B}" name="PD" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{661FCF7E-DA3E-514D-8DC7-7D06C45AACFC}" name="SD" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{F7C59FC9-DF64-FD40-8D2F-EF32939002B1}" name="VOLUME" dataDxfId="192"/>
+    <tableColumn id="4" xr3:uid="{7D2664FE-FC8A-9748-81FA-CCE7A833F5C7}" name="CPC" dataDxfId="191"/>
+    <tableColumn id="5" xr3:uid="{E5657E44-87CE-4E4C-8086-7953652A722B}" name="PD" dataDxfId="190"/>
+    <tableColumn id="6" xr3:uid="{661FCF7E-DA3E-514D-8DC7-7D06C45AACFC}" name="SD" dataDxfId="189"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{4E6AA7B5-C8C1-2C49-8F29-E669DAA3A9FE}" name="Table30" displayName="Table30" ref="A206:F208" totalsRowShown="0">
-  <autoFilter ref="A206:F208" xr:uid="{EB7A5DB5-D5F9-9D47-942A-A71DF5507CAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{4E6AA7B5-C8C1-2C49-8F29-E669DAA3A9FE}" name="Table30" displayName="Table30" ref="A207:F209" totalsRowShown="0">
+  <autoFilter ref="A207:F209" xr:uid="{EB7A5DB5-D5F9-9D47-942A-A71DF5507CAF}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E503D603-8D4B-7D4D-AEA7-BD1CD05E5949}" name="#"/>
     <tableColumn id="2" xr3:uid="{62C2A37D-6A87-2349-A850-05F3D9E13089}" name="KW"/>
@@ -1780,8 +2974,8 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{82CADB8F-1635-6444-BC1E-043F87768FCB}" name="Table31" displayName="Table31" ref="A212:F218" totalsRowShown="0">
-  <autoFilter ref="A212:F218" xr:uid="{4D1DC9C7-1499-E045-A05F-BA9487AB9AE1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{82CADB8F-1635-6444-BC1E-043F87768FCB}" name="Table31" displayName="Table31" ref="A213:F219" totalsRowShown="0">
+  <autoFilter ref="A213:F219" xr:uid="{4D1DC9C7-1499-E045-A05F-BA9487AB9AE1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{012491C6-1CD7-D44C-926F-48F3A182A3A8}" name="#"/>
     <tableColumn id="2" xr3:uid="{C0384956-8F2A-6C48-AE45-A59297AA3D26}" name="KW"/>
@@ -1795,8 +2989,8 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{B96DEF6C-D206-D44A-9CC9-B82B465F5244}" name="Table32" displayName="Table32" ref="A221:F224" totalsRowShown="0">
-  <autoFilter ref="A221:F224" xr:uid="{FBD743C5-9955-2445-A8F2-EF3017E47A40}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{B96DEF6C-D206-D44A-9CC9-B82B465F5244}" name="Table32" displayName="Table32" ref="A222:F225" totalsRowShown="0">
+  <autoFilter ref="A222:F225" xr:uid="{FBD743C5-9955-2445-A8F2-EF3017E47A40}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B0CE1A59-5107-044E-B4DC-2FD47AADE425}" name="#"/>
     <tableColumn id="2" xr3:uid="{87280698-11B8-614A-A360-3F74F78559A9}" name="KW"/>
@@ -1810,8 +3004,8 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{B9B8CCF4-DA57-2A4A-9003-D9FF61076968}" name="Table33" displayName="Table33" ref="A227:F228" totalsRowShown="0">
-  <autoFilter ref="A227:F228" xr:uid="{3A6D47D0-4298-2146-B1E2-6B101811979B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{B9B8CCF4-DA57-2A4A-9003-D9FF61076968}" name="Table33" displayName="Table33" ref="A228:F229" totalsRowShown="0">
+  <autoFilter ref="A228:F229" xr:uid="{3A6D47D0-4298-2146-B1E2-6B101811979B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{77403E06-EF02-6D4A-B23F-461C83D7FD93}" name="#"/>
     <tableColumn id="2" xr3:uid="{331FE9C1-33C8-F843-9595-64931EF0D9F0}" name="KW"/>
@@ -1825,68 +3019,68 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{7E2AA5F6-B755-2B47-BA5F-50BBEF65E6C6}" name="Table34" displayName="Table34" ref="A231:F232" totalsRowShown="0">
-  <autoFilter ref="A231:F232" xr:uid="{798DAC0A-477C-AE4E-A31E-727E21B359A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{7E2AA5F6-B755-2B47-BA5F-50BBEF65E6C6}" name="Table34" displayName="Table34" ref="A232:F233" totalsRowShown="0">
+  <autoFilter ref="A232:F233" xr:uid="{798DAC0A-477C-AE4E-A31E-727E21B359A3}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1A68CF93-2105-E843-9086-FF696EBEF9EB}" name="#"/>
-    <tableColumn id="2" xr3:uid="{10A455A8-44CC-1D40-B80E-88EA3F8674CD}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{ED2B36EA-BD98-2E4C-81A5-4FCDFFE06961}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{A1D86550-0EC1-A348-A6A7-DE63593FD1DA}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{1AB74525-825E-2747-A048-018E76DADD88}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{BC7C9624-2B36-5546-9348-F627A4622F57}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{10A455A8-44CC-1D40-B80E-88EA3F8674CD}" name="KW" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{ED2B36EA-BD98-2E4C-81A5-4FCDFFE06961}" name="VOLUME" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{A1D86550-0EC1-A348-A6A7-DE63593FD1DA}" name="CPC" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{1AB74525-825E-2747-A048-018E76DADD88}" name="PD" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{BC7C9624-2B36-5546-9348-F627A4622F57}" name="SD" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{79DA976F-9915-C043-A0D0-61C35300B87F}" name="Table35" displayName="Table35" ref="A235:F236" totalsRowShown="0">
-  <autoFilter ref="A235:F236" xr:uid="{4A881D36-4749-F74C-B36A-481354247021}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{79DA976F-9915-C043-A0D0-61C35300B87F}" name="Table35" displayName="Table35" ref="A236:F237" totalsRowShown="0">
+  <autoFilter ref="A236:F237" xr:uid="{4A881D36-4749-F74C-B36A-481354247021}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FBAC947B-E7DF-9E45-B1A9-997D3AC3DDEB}" name="#"/>
-    <tableColumn id="2" xr3:uid="{8DB65BBD-94EE-B44E-938D-EB91731083D6}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{2571BFAF-55C8-8340-BFB8-04046ADBD13D}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{2910A3E4-1B94-3A42-95DD-24B163F5F4C4}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{278A0A9D-2373-D747-8565-D4AAB9FFB722}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{C9E1AE8B-F6FC-E94C-AEB4-B790F7139A14}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{8DB65BBD-94EE-B44E-938D-EB91731083D6}" name="KW" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{2571BFAF-55C8-8340-BFB8-04046ADBD13D}" name="VOLUME" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{2910A3E4-1B94-3A42-95DD-24B163F5F4C4}" name="CPC" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{278A0A9D-2373-D747-8565-D4AAB9FFB722}" name="PD" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{C9E1AE8B-F6FC-E94C-AEB4-B790F7139A14}" name="SD" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{AF1C5732-1722-6244-95A7-4962CEB12BC1}" name="Table36" displayName="Table36" ref="A240:F241" totalsRowShown="0">
-  <autoFilter ref="A240:F241" xr:uid="{C6A34C7A-FF1B-564F-9487-1F6564C55FB0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{AF1C5732-1722-6244-95A7-4962CEB12BC1}" name="Table36" displayName="Table36" ref="A241:F242" totalsRowShown="0">
+  <autoFilter ref="A241:F242" xr:uid="{C6A34C7A-FF1B-564F-9487-1F6564C55FB0}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{21007F4A-8E39-0A45-A357-7C287AB1B6A8}" name="#"/>
-    <tableColumn id="2" xr3:uid="{522AF2E7-8DD6-9A40-9946-E337745086F9}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{8A5E3EC2-0B37-B84D-85B5-8C66AED77238}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{8DEF61B7-2DA8-1043-9E62-21687C2B9C0E}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{154F65F6-6C82-6D43-B15B-1140E4CA3B47}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{7D2BA681-048E-FC4B-9F73-130EF4415D12}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{522AF2E7-8DD6-9A40-9946-E337745086F9}" name="KW" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{8A5E3EC2-0B37-B84D-85B5-8C66AED77238}" name="VOLUME" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{8DEF61B7-2DA8-1043-9E62-21687C2B9C0E}" name="CPC" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{154F65F6-6C82-6D43-B15B-1140E4CA3B47}" name="PD" dataDxfId="126"/>
+    <tableColumn id="6" xr3:uid="{7D2BA681-048E-FC4B-9F73-130EF4415D12}" name="SD" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{6F384CB0-B521-854D-9642-25DC7912CD80}" name="Table37" displayName="Table37" ref="A312:F314" totalsRowShown="0">
-  <autoFilter ref="A312:F314" xr:uid="{80917D28-E05D-744F-9B91-CFD6B0CB3F86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{6F384CB0-B521-854D-9642-25DC7912CD80}" name="Table37" displayName="Table37" ref="A313:F315" totalsRowShown="0">
+  <autoFilter ref="A313:F315" xr:uid="{80917D28-E05D-744F-9B91-CFD6B0CB3F86}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3673096A-10E6-D84E-8AA4-8A832614FE9C}" name="#"/>
-    <tableColumn id="2" xr3:uid="{97C26049-DE12-1347-B001-DDA8A703812A}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{A1221B1E-A972-3143-9AF5-035B25146878}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{886918F8-80E2-3143-81B7-26673EEE2732}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{7138E072-4D42-AD49-9575-97359C1D6762}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{67A37A69-D6B6-FE45-B9BC-AE71C5D4192D}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{97C26049-DE12-1347-B001-DDA8A703812A}" name="KW" dataDxfId="149"/>
+    <tableColumn id="3" xr3:uid="{A1221B1E-A972-3143-9AF5-035B25146878}" name="VOLUME" dataDxfId="148"/>
+    <tableColumn id="4" xr3:uid="{886918F8-80E2-3143-81B7-26673EEE2732}" name="CPC" dataDxfId="147"/>
+    <tableColumn id="5" xr3:uid="{7138E072-4D42-AD49-9575-97359C1D6762}" name="PD" dataDxfId="146"/>
+    <tableColumn id="6" xr3:uid="{67A37A69-D6B6-FE45-B9BC-AE71C5D4192D}" name="SD" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{FF145E99-4D5A-1340-8A56-1A07ADC7FE48}" name="Table38" displayName="Table38" ref="A307:F308" totalsRowShown="0">
-  <autoFilter ref="A307:F308" xr:uid="{9460A721-60BF-E747-AEE0-AFEFF5C199D6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{FF145E99-4D5A-1340-8A56-1A07ADC7FE48}" name="Table38" displayName="Table38" ref="A308:F309" totalsRowShown="0">
+  <autoFilter ref="A308:F309" xr:uid="{9460A721-60BF-E747-AEE0-AFEFF5C199D6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{62BD0BFB-EF81-FE4A-B508-F65A7DF465CF}" name="#"/>
     <tableColumn id="2" xr3:uid="{ACEA8E08-8172-8B49-ACC4-6C84371065A3}" name="KW"/>
@@ -1900,8 +3094,8 @@
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{82EAE280-934F-9349-A8C9-F77B5E249666}" name="Table39" displayName="Table39" ref="A301:F302" totalsRowShown="0">
-  <autoFilter ref="A301:F302" xr:uid="{EE219D3A-5AE5-6642-8DF3-ABEF89D07062}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{82EAE280-934F-9349-A8C9-F77B5E249666}" name="Table39" displayName="Table39" ref="A302:F303" totalsRowShown="0">
+  <autoFilter ref="A302:F303" xr:uid="{EE219D3A-5AE5-6642-8DF3-ABEF89D07062}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3F300911-E7AB-6849-8BDA-6392195412BF}" name="#"/>
     <tableColumn id="2" xr3:uid="{4C3EABC9-B1DD-9F4F-AB49-0DCD2D0FD30F}" name="KW"/>
@@ -1915,53 +3109,53 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6CD6A3DA-EBB3-4B49-A333-F222C71C3FF4}" name="Table4" displayName="Table4" ref="A43:F50" totalsRowShown="0" headerRowDxfId="39" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6CD6A3DA-EBB3-4B49-A333-F222C71C3FF4}" name="Table4" displayName="Table4" ref="A43:F50" totalsRowShown="0" headerRowDxfId="181" dataDxfId="182">
   <autoFilter ref="A43:F50" xr:uid="{E1F4886C-A78A-534F-9D7B-151A99238035}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5C5A6511-87CA-6640-8AF2-E538935E19D4}" name="#"/>
     <tableColumn id="2" xr3:uid="{AF38B8D5-D486-D44B-97B3-C65E46F807D2}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{E06AF93F-99E3-8D4A-A8F6-8379012349BD}" name="VOLUME" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{B31113DE-7E56-DB4E-99BE-2FC580590D64}" name="CPC" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{3909BDF8-8D1B-C040-BEAA-7F91A66F34F4}" name="PD" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{F63EF63C-5693-7F40-A3E6-3D3B30C29EBE}" name="SD" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{E06AF93F-99E3-8D4A-A8F6-8379012349BD}" name="VOLUME" dataDxfId="186"/>
+    <tableColumn id="4" xr3:uid="{B31113DE-7E56-DB4E-99BE-2FC580590D64}" name="CPC" dataDxfId="185"/>
+    <tableColumn id="5" xr3:uid="{3909BDF8-8D1B-C040-BEAA-7F91A66F34F4}" name="PD" dataDxfId="184"/>
+    <tableColumn id="6" xr3:uid="{F63EF63C-5693-7F40-A3E6-3D3B30C29EBE}" name="SD" dataDxfId="183"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{A6291C68-F138-4149-81B3-3742370F8F23}" name="Table40" displayName="Table40" ref="A296:F297" totalsRowShown="0">
-  <autoFilter ref="A296:F297" xr:uid="{8415CD92-C684-BD4D-BF4A-B93A3D7447AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{A6291C68-F138-4149-81B3-3742370F8F23}" name="Table40" displayName="Table40" ref="A297:F298" totalsRowShown="0">
+  <autoFilter ref="A297:F298" xr:uid="{8415CD92-C684-BD4D-BF4A-B93A3D7447AF}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AA071852-22B1-B54C-B1F0-945B2C6D3A61}" name="#"/>
-    <tableColumn id="2" xr3:uid="{29452E80-0BC1-8346-8BE0-61AA79C4B88A}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{52CB9019-B229-EF45-BC98-375AAEC2014A}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{93812977-0181-0244-A57F-EFC6BC94F412}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{5C50DD7D-751A-9C4B-A697-2B64A55B5710}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{435C4AFB-34B3-7E49-8A55-5C2678C923C6}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{29452E80-0BC1-8346-8BE0-61AA79C4B88A}" name="KW" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{52CB9019-B229-EF45-BC98-375AAEC2014A}" name="VOLUME" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{93812977-0181-0244-A57F-EFC6BC94F412}" name="CPC" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{5C50DD7D-751A-9C4B-A697-2B64A55B5710}" name="PD" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{435C4AFB-34B3-7E49-8A55-5C2678C923C6}" name="SD" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{CCACEE02-3A80-5E42-B281-BFEF61F68265}" name="Table41" displayName="Table41" ref="A289:F291" totalsRowShown="0">
-  <autoFilter ref="A289:F291" xr:uid="{21312958-A3D9-5342-B8CD-58201E27E1AE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{CCACEE02-3A80-5E42-B281-BFEF61F68265}" name="Table41" displayName="Table41" ref="A290:F292" totalsRowShown="0">
+  <autoFilter ref="A290:F292" xr:uid="{21312958-A3D9-5342-B8CD-58201E27E1AE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4E0F92E9-9CE0-7045-92BD-799AB5D715C8}" name="#"/>
-    <tableColumn id="2" xr3:uid="{311BB895-1944-E846-A97B-47A473B4B203}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{B8A9F904-9AAC-A04B-BF25-0D07CE4DF9B5}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{D53E6C78-6A76-684F-BF86-0E32818949C2}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{C7450CE3-EFFB-674D-A49F-5BB2801F623A}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{BE80AA8B-61FD-4946-88DC-3AA8B8A5FB25}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{311BB895-1944-E846-A97B-47A473B4B203}" name="KW" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{B8A9F904-9AAC-A04B-BF25-0D07CE4DF9B5}" name="VOLUME" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{D53E6C78-6A76-684F-BF86-0E32818949C2}" name="CPC" dataDxfId="132"/>
+    <tableColumn id="5" xr3:uid="{C7450CE3-EFFB-674D-A49F-5BB2801F623A}" name="PD" dataDxfId="131"/>
+    <tableColumn id="6" xr3:uid="{BE80AA8B-61FD-4946-88DC-3AA8B8A5FB25}" name="SD" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{6A74674F-204C-C24F-97A3-EADB634B2C83}" name="Table42" displayName="Table42" ref="A281:F284" totalsRowShown="0">
-  <autoFilter ref="A281:F284" xr:uid="{93E0F32D-2ABC-514F-85C4-82DE66A2DE99}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{6A74674F-204C-C24F-97A3-EADB634B2C83}" name="Table42" displayName="Table42" ref="A282:F285" totalsRowShown="0">
+  <autoFilter ref="A282:F285" xr:uid="{93E0F32D-2ABC-514F-85C4-82DE66A2DE99}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{310114E7-D855-1445-AE77-DF15649F1F2A}" name="#"/>
     <tableColumn id="2" xr3:uid="{1FC50763-5A3D-DA43-B9EE-7FE660F82B80}" name="KW"/>
@@ -1975,23 +3169,23 @@
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{04732441-E31E-C64A-8F08-8DFCF488F44B}" name="Table43" displayName="Table43" ref="A274:F275" totalsRowShown="0">
-  <autoFilter ref="A274:F275" xr:uid="{131C604D-C75F-6543-9E00-321A2AB0FC66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{04732441-E31E-C64A-8F08-8DFCF488F44B}" name="Table43" displayName="Table43" ref="A275:F276" totalsRowShown="0">
+  <autoFilter ref="A275:F276" xr:uid="{131C604D-C75F-6543-9E00-321A2AB0FC66}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47479908-2CEB-F542-9F66-BF791B058A2B}" name="#"/>
-    <tableColumn id="2" xr3:uid="{7458C2FE-6FD9-9E4D-8864-B42898EA1C2D}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{90BD3323-0AA7-7042-A506-170EC757793A}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{1DBE8357-B843-1442-88B7-2E4685D34888}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{D281F16B-9497-0A42-AFE9-23B682876E91}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{C599C896-EAED-DB4A-8987-F459D26B76EA}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{7458C2FE-6FD9-9E4D-8864-B42898EA1C2D}" name="KW" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{90BD3323-0AA7-7042-A506-170EC757793A}" name="VOLUME" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{1DBE8357-B843-1442-88B7-2E4685D34888}" name="CPC" dataDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{D281F16B-9497-0A42-AFE9-23B682876E91}" name="PD" dataDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{C599C896-EAED-DB4A-8987-F459D26B76EA}" name="SD" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{40131C47-F430-D748-AB1D-888A4BEDE7FF}" name="Table44" displayName="Table44" ref="A265:F270" totalsRowShown="0">
-  <autoFilter ref="A265:F270" xr:uid="{870423FC-5462-4D49-A672-BF368D21639B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{40131C47-F430-D748-AB1D-888A4BEDE7FF}" name="Table44" displayName="Table44" ref="A266:F271" totalsRowShown="0">
+  <autoFilter ref="A266:F271" xr:uid="{870423FC-5462-4D49-A672-BF368D21639B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C422E137-E850-4942-8795-F1B932F0AC81}" name="#"/>
     <tableColumn id="2" xr3:uid="{F8745E7F-BD88-F34C-8068-180293FF6EEA}" name="KW"/>
@@ -2005,8 +3199,8 @@
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{FC1D5E90-D994-2948-A29C-2706A9E54EEF}" name="Table45" displayName="Table45" ref="A260:F261" totalsRowShown="0">
-  <autoFilter ref="A260:F261" xr:uid="{E774FE51-A495-FD48-A57B-463065422481}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{FC1D5E90-D994-2948-A29C-2706A9E54EEF}" name="Table45" displayName="Table45" ref="A261:F262" totalsRowShown="0">
+  <autoFilter ref="A261:F262" xr:uid="{E774FE51-A495-FD48-A57B-463065422481}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1A7D1778-AAE2-C845-A225-2CE136105BAD}" name="#"/>
     <tableColumn id="2" xr3:uid="{78DD9722-05C8-914C-857E-4943D07ED3D5}" name="KW"/>
@@ -2020,8 +3214,8 @@
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{3DC181BC-A210-9845-A1A8-4E2A868F19E5}" name="Table46" displayName="Table46" ref="A255:F257" totalsRowShown="0">
-  <autoFilter ref="A255:F257" xr:uid="{014F1DDF-A660-394F-A183-1D5B6B900C85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{3DC181BC-A210-9845-A1A8-4E2A868F19E5}" name="Table46" displayName="Table46" ref="A256:F258" totalsRowShown="0">
+  <autoFilter ref="A256:F258" xr:uid="{014F1DDF-A660-394F-A183-1D5B6B900C85}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{53E124B0-4460-2B4D-8288-EC3202FA39CC}" name="#"/>
     <tableColumn id="2" xr3:uid="{49A67E34-5D4A-A24A-9E49-67B344A4D04A}" name="KW"/>
@@ -2035,23 +3229,23 @@
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{E2539A93-B89A-994F-B86F-E3A8AEAD2697}" name="Table47" displayName="Table47" ref="A250:F251" totalsRowShown="0">
-  <autoFilter ref="A250:F251" xr:uid="{2605DB0E-565A-764E-B08C-2A49ABFBCFEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{E2539A93-B89A-994F-B86F-E3A8AEAD2697}" name="Table47" displayName="Table47" ref="A251:F252" totalsRowShown="0">
+  <autoFilter ref="A251:F252" xr:uid="{2605DB0E-565A-764E-B08C-2A49ABFBCFEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{90201E4E-36D1-0B44-BA47-AE1B928B789B}" name="#"/>
-    <tableColumn id="2" xr3:uid="{5CF3D89A-BD7E-DF47-9AE5-54204B9DD67D}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{DB9E152C-CC10-D041-9FB7-DED0E4DD6F2F}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{2129E822-B724-164C-AC71-6DF4EDA43B5E}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{B487EB01-4CA2-AF46-8ABE-D5082F64B50F}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{615DA23E-F319-C546-BD1A-B626825BF969}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{5CF3D89A-BD7E-DF47-9AE5-54204B9DD67D}" name="KW" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{DB9E152C-CC10-D041-9FB7-DED0E4DD6F2F}" name="VOLUME" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{2129E822-B724-164C-AC71-6DF4EDA43B5E}" name="CPC" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{B487EB01-4CA2-AF46-8ABE-D5082F64B50F}" name="PD" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{615DA23E-F319-C546-BD1A-B626825BF969}" name="SD" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{2203B12E-D061-354C-86BD-32686309FC0C}" name="Table48" displayName="Table48" ref="A245:F247" totalsRowShown="0">
-  <autoFilter ref="A245:F247" xr:uid="{15D505DB-C840-9F4F-B8FD-2F20529492CD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{2203B12E-D061-354C-86BD-32686309FC0C}" name="Table48" displayName="Table48" ref="A246:F248" totalsRowShown="0">
+  <autoFilter ref="A246:F248" xr:uid="{15D505DB-C840-9F4F-B8FD-2F20529492CD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A2EABC61-4642-A14B-9F4D-C54C6EB4D46D}" name="#"/>
     <tableColumn id="2" xr3:uid="{927A2C90-25CF-1F48-AD15-CE58433ABA95}" name="KW"/>
@@ -2065,8 +3259,8 @@
 </file>
 
 <file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{2A878412-91EA-1E43-9B9D-C7CA7B787096}" name="Table49" displayName="Table49" ref="A318:F326" totalsRowShown="0">
-  <autoFilter ref="A318:F326" xr:uid="{E26C7D96-5396-D745-A31F-B1C996A5F1B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{2A878412-91EA-1E43-9B9D-C7CA7B787096}" name="Table49" displayName="Table49" ref="A319:F327" totalsRowShown="0">
+  <autoFilter ref="A319:F327" xr:uid="{E26C7D96-5396-D745-A31F-B1C996A5F1B1}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B5FB6C6F-90D7-134F-966E-8CC8E62C7ADD}" name="#"/>
     <tableColumn id="2" xr3:uid="{0FAF524E-1B3D-7A44-A165-27E52CB7D7DC}" name="KW"/>
@@ -2080,23 +3274,23 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ABB0287C-E77D-FB4A-B57C-1F015485ED9B}" name="Table5" displayName="Table5" ref="A53:F64" totalsRowShown="0" headerRowDxfId="33" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ABB0287C-E77D-FB4A-B57C-1F015485ED9B}" name="Table5" displayName="Table5" ref="A53:F64" totalsRowShown="0" headerRowDxfId="179" dataDxfId="180">
   <autoFilter ref="A53:F64" xr:uid="{40D9031D-B8B8-2649-9744-638C0B6C1119}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2445B845-753F-434D-994F-9611BF1B1819}" name="#"/>
-    <tableColumn id="2" xr3:uid="{A56AFC12-695B-3D48-AE65-A6A2003BA328}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{3C617472-002E-B649-8B2F-D9EBD0F31B9B}" name="VOLUME" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{7A7CB667-328D-C74B-A491-018716AAB431}" name="CPC" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{72F17B20-E61A-4E46-AFCC-F27E21C38A34}" name="PD" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{39A6763D-2427-4047-8F00-4EE6481B6817}" name="SD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{A56AFC12-695B-3D48-AE65-A6A2003BA328}" name="KW" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{3C617472-002E-B649-8B2F-D9EBD0F31B9B}" name="VOLUME" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{7A7CB667-328D-C74B-A491-018716AAB431}" name="CPC" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{72F17B20-E61A-4E46-AFCC-F27E21C38A34}" name="PD" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{39A6763D-2427-4047-8F00-4EE6481B6817}" name="SD" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{6D0A0398-22BF-3448-BFAF-1CCF79BD4FC8}" name="Table50" displayName="Table50" ref="A330:F337" totalsRowShown="0">
-  <autoFilter ref="A330:F337" xr:uid="{88E02EBC-760D-AB40-BF4E-5FDB39F51F18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{6D0A0398-22BF-3448-BFAF-1CCF79BD4FC8}" name="Table50" displayName="Table50" ref="A331:F338" totalsRowShown="0">
+  <autoFilter ref="A331:F338" xr:uid="{88E02EBC-760D-AB40-BF4E-5FDB39F51F18}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0A32CD0C-130A-D14A-B247-24452AE10A94}" name="#"/>
     <tableColumn id="2" xr3:uid="{4E87A0EC-8011-804A-85D6-1B4658D52387}" name="KW"/>
@@ -2110,8 +3304,8 @@
 </file>
 
 <file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{AF848121-E4E3-674C-9D4A-8A1ECA48B8E7}" name="Table51" displayName="Table51" ref="A341:F352" totalsRowShown="0">
-  <autoFilter ref="A341:F352" xr:uid="{0721B05E-A132-E546-8667-908EED319901}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{AF848121-E4E3-674C-9D4A-8A1ECA48B8E7}" name="Table51" displayName="Table51" ref="A342:F353" totalsRowShown="0">
+  <autoFilter ref="A342:F353" xr:uid="{0721B05E-A132-E546-8667-908EED319901}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D60421DE-F0C9-404E-943A-FD8DE163A718}" name="#"/>
     <tableColumn id="2" xr3:uid="{8E52D6E5-63EC-6343-ABA7-1759E4A15795}" name="KW"/>
@@ -2125,38 +3319,38 @@
 </file>
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{CE126DCC-19DE-5548-A1A4-54888670E9C8}" name="Table52" displayName="Table52" ref="A355:F357" totalsRowShown="0">
-  <autoFilter ref="A355:F357" xr:uid="{E616B480-8E79-C14D-85B9-E21CB859CEAD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{CE126DCC-19DE-5548-A1A4-54888670E9C8}" name="Table52" displayName="Table52" ref="A356:F358" totalsRowShown="0">
+  <autoFilter ref="A356:F358" xr:uid="{E616B480-8E79-C14D-85B9-E21CB859CEAD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{46FB6008-307F-894B-AF2B-7335CD5EF175}" name="#"/>
-    <tableColumn id="2" xr3:uid="{08D78948-637B-964C-AC65-A587329B555A}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{75E39E01-638B-8B41-B424-FEF42743F882}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{A4499AF4-AC54-CA42-8A44-D3442A1E53CF}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{C52B8664-213C-B34E-90E5-E0B9C24BDF6F}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{2A86F28E-29C5-B444-BC11-A45C0D4DB6C4}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{08D78948-637B-964C-AC65-A587329B555A}" name="KW" dataDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{75E39E01-638B-8B41-B424-FEF42743F882}" name="VOLUME" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{A4499AF4-AC54-CA42-8A44-D3442A1E53CF}" name="CPC" dataDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{C52B8664-213C-B34E-90E5-E0B9C24BDF6F}" name="PD" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{2A86F28E-29C5-B444-BC11-A45C0D4DB6C4}" name="SD" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{BBC9E725-C6A5-A34D-A4C9-F3E69BB5A870}" name="Table53" displayName="Table53" ref="A360:F362" totalsRowShown="0">
-  <autoFilter ref="A360:F362" xr:uid="{C716696E-A16E-3F4B-9353-B6DE44744036}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{BBC9E725-C6A5-A34D-A4C9-F3E69BB5A870}" name="Table53" displayName="Table53" ref="A361:F363" totalsRowShown="0">
+  <autoFilter ref="A361:F363" xr:uid="{C716696E-A16E-3F4B-9353-B6DE44744036}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4A5397EF-0CF6-E144-BA74-053A47927FEE}" name="#"/>
-    <tableColumn id="2" xr3:uid="{4B283485-6E41-B749-BF24-420220818E0E}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{2F7F200C-8B71-124F-8C4A-AFB9EA61FC34}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{B39C4444-CE70-374A-A6B4-BB99F8B239BB}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{3AF8CF54-3FA1-EE4F-A683-BF02D40C681B}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{C8E43254-08F1-4548-9DF5-24F730CD1DE4}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{4B283485-6E41-B749-BF24-420220818E0E}" name="KW" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{2F7F200C-8B71-124F-8C4A-AFB9EA61FC34}" name="VOLUME" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{B39C4444-CE70-374A-A6B4-BB99F8B239BB}" name="CPC" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{3AF8CF54-3FA1-EE4F-A683-BF02D40C681B}" name="PD" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{C8E43254-08F1-4548-9DF5-24F730CD1DE4}" name="SD" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="54" xr:uid="{E27CC08F-30E5-3045-A05E-DFC7CA9C7CF9}" name="Table54" displayName="Table54" ref="A366:F372" totalsRowShown="0">
-  <autoFilter ref="A366:F372" xr:uid="{AD058C80-C0F9-9246-A5A2-346BC04E0915}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="54" xr:uid="{E27CC08F-30E5-3045-A05E-DFC7CA9C7CF9}" name="Table54" displayName="Table54" ref="A367:F373" totalsRowShown="0">
+  <autoFilter ref="A367:F373" xr:uid="{AD058C80-C0F9-9246-A5A2-346BC04E0915}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{349684E6-A379-EA41-A875-5421C2C31595}" name="#"/>
     <tableColumn id="2" xr3:uid="{9E990D0C-95F4-0D4A-8380-EC9F3CDE532F}" name="KW"/>
@@ -2170,8 +3364,8 @@
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{6C0EF1C4-253E-5344-8A25-A6A31159B366}" name="Table55" displayName="Table55" ref="A375:F377" totalsRowShown="0">
-  <autoFilter ref="A375:F377" xr:uid="{389C3DC9-8FE9-2648-97AF-DFC2026F682D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{6C0EF1C4-253E-5344-8A25-A6A31159B366}" name="Table55" displayName="Table55" ref="A376:F378" totalsRowShown="0">
+  <autoFilter ref="A376:F378" xr:uid="{389C3DC9-8FE9-2648-97AF-DFC2026F682D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{ADED60FF-AD96-4B45-8AC2-6CDABEA47E23}" name="#"/>
     <tableColumn id="2" xr3:uid="{B0B9CF26-23E1-BC46-8AEB-4F86E7B64FDF}" name="KW"/>
@@ -2185,8 +3379,8 @@
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="56" xr:uid="{8AED8038-C30B-EE4B-9250-A27D8E28353A}" name="Table56" displayName="Table56" ref="A380:F391" totalsRowShown="0">
-  <autoFilter ref="A380:F391" xr:uid="{52CFA440-6384-1D4C-B36A-CAC3D730769B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="56" xr:uid="{8AED8038-C30B-EE4B-9250-A27D8E28353A}" name="Table56" displayName="Table56" ref="A381:F392" totalsRowShown="0">
+  <autoFilter ref="A381:F392" xr:uid="{52CFA440-6384-1D4C-B36A-CAC3D730769B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{692726F9-2F5A-7348-BF66-C3500B9607B8}" name="#"/>
     <tableColumn id="2" xr3:uid="{94E09C70-DE49-7849-B1B1-771C6FF913E9}" name="KW"/>
@@ -2200,75 +3394,90 @@
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="57" xr:uid="{5EDFB5E9-9B4C-E645-BA3C-7204983D2154}" name="Table57" displayName="Table57" ref="A394:F395" totalsRowShown="0">
-  <autoFilter ref="A394:F395" xr:uid="{E1ABF0D9-1B82-D245-AB49-B1E6E7C794DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="57" xr:uid="{5EDFB5E9-9B4C-E645-BA3C-7204983D2154}" name="Table57" displayName="Table57" ref="A395:F396" totalsRowShown="0">
+  <autoFilter ref="A395:F396" xr:uid="{E1ABF0D9-1B82-D245-AB49-B1E6E7C794DD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5AD74509-C6BC-1040-A108-BF0B1E6DEB87}" name="#"/>
-    <tableColumn id="2" xr3:uid="{24E9E449-C266-5941-8312-29B99050AC2A}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{8E815F5F-D516-6B42-8054-E558941EB56B}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{2EAE2FA4-58F0-4449-9BF9-2D55992E0A31}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{99BCB5E3-2257-F344-A57E-65B9DBACCB15}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{51DC1A12-5999-0F43-98B0-EBF8E297BC80}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{24E9E449-C266-5941-8312-29B99050AC2A}" name="KW" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{8E815F5F-D516-6B42-8054-E558941EB56B}" name="VOLUME" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{2EAE2FA4-58F0-4449-9BF9-2D55992E0A31}" name="CPC" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{99BCB5E3-2257-F344-A57E-65B9DBACCB15}" name="PD" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{51DC1A12-5999-0F43-98B0-EBF8E297BC80}" name="SD" dataDxfId="135"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="58" xr:uid="{2F8FEABA-DC52-5540-86A6-90FCF15364AF}" name="Table58" displayName="Table58" ref="A399:F400" totalsRowShown="0">
+  <autoFilter ref="A399:F400" xr:uid="{258302AC-F1DF-CA48-887A-45506D3B0938}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{573199EB-F122-E54E-B615-7F620A4E0947}" name="#"/>
+    <tableColumn id="2" xr3:uid="{B215C889-9AA0-BC41-8B86-CC5233E98491}" name="KW" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{5FBA2203-B030-0A42-9A46-65E7F2D457EC}" name="VOLUME" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{6DC0A2F3-850B-F645-B4E0-BBEF8ECB2991}" name="CPC" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{AC957D1B-7210-5140-8CED-3FE636E39E39}" name="PD" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{4D603F8A-49D0-D445-A34A-8493CD1D0125}" name="SD" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{02D23F88-327F-BE42-8257-6FD3391D656B}" name="Table6" displayName="Table6" ref="A67:F76" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{02D23F88-327F-BE42-8257-6FD3391D656B}" name="Table6" displayName="Table6" ref="A67:F76" totalsRowShown="0" headerRowDxfId="173" dataDxfId="174">
   <autoFilter ref="A67:F76" xr:uid="{BC7DFAB6-8BA6-704C-B790-23A3C4748E5F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{880CBFAA-36A2-874D-8AA4-C09FE696FF00}" name="#"/>
     <tableColumn id="2" xr3:uid="{490F995D-E92F-964E-A5B6-8BAA9499424C}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{6FFAB101-9047-FF46-934B-398B65EB3E43}" name="VOLUME" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{D00EF6C7-8B93-CD44-8985-FEB8E138E3F2}" name="CPC" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{94C4271F-E3BE-BD42-B077-4D1D09914322}" name="PD" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{047B9427-23EA-4D48-A22E-B0E6DA1C4F22}" name="SD" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{6FFAB101-9047-FF46-934B-398B65EB3E43}" name="VOLUME" dataDxfId="178"/>
+    <tableColumn id="4" xr3:uid="{D00EF6C7-8B93-CD44-8985-FEB8E138E3F2}" name="CPC" dataDxfId="177"/>
+    <tableColumn id="5" xr3:uid="{94C4271F-E3BE-BD42-B077-4D1D09914322}" name="PD" dataDxfId="176"/>
+    <tableColumn id="6" xr3:uid="{047B9427-23EA-4D48-A22E-B0E6DA1C4F22}" name="SD" dataDxfId="175"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{53E7CD98-E878-1B40-8A7D-834CDEA5211C}" name="Table7" displayName="Table7" ref="A79:F81" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{53E7CD98-E878-1B40-8A7D-834CDEA5211C}" name="Table7" displayName="Table7" ref="A79:F81" totalsRowShown="0" headerRowDxfId="171" dataDxfId="172">
   <autoFilter ref="A79:F81" xr:uid="{2CD78512-5E22-0B4A-8BE8-F391F61348D6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9B309D2C-ED15-0547-B71A-7395F0F8857A}" name="#"/>
-    <tableColumn id="2" xr3:uid="{894DF4D9-C9E8-AB47-8B7C-BB2F4497A10A}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{54C9E742-B22C-E74E-85A4-6B6C26C8EEDA}" name="VOLUME" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{71C95C8A-91D3-3545-86F4-EC48906F2757}" name="CPC" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{EED0FBFF-0F6D-5642-9CF6-4054D7D47EDF}" name="PD" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{E85B43F9-EC9D-1445-8B45-9031F45AB06E}" name="SD" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{894DF4D9-C9E8-AB47-8B7C-BB2F4497A10A}" name="KW" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{54C9E742-B22C-E74E-85A4-6B6C26C8EEDA}" name="VOLUME" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{71C95C8A-91D3-3545-86F4-EC48906F2757}" name="CPC" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{EED0FBFF-0F6D-5642-9CF6-4054D7D47EDF}" name="PD" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{E85B43F9-EC9D-1445-8B45-9031F45AB06E}" name="SD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{36461A84-FB1A-0540-9112-4CD67EA72ADF}" name="Table8" displayName="Table8" ref="A84:F90" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{36461A84-FB1A-0540-9112-4CD67EA72ADF}" name="Table8" displayName="Table8" ref="A84:F90" totalsRowShown="0" headerRowDxfId="165" dataDxfId="166">
   <autoFilter ref="A84:F90" xr:uid="{69D2BCC8-0473-C740-BF25-47E773E18FD8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C673C655-553C-7240-821B-75AE6D0932DA}" name="#"/>
     <tableColumn id="2" xr3:uid="{E71D5422-955C-364E-A864-4CD804F9AF51}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{6FDB4FD1-A82F-EE43-B6A9-34DB41DE2B43}" name="VOLUME" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{2C77C2F3-9602-C84E-9C3F-DE0D7F663514}" name="CPC" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{47D00704-BE8F-4440-BF1D-49398F51C47B}" name="PD" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{568B9501-3C39-4D49-AE83-5463E5AA43F9}" name="SD" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{6FDB4FD1-A82F-EE43-B6A9-34DB41DE2B43}" name="VOLUME" dataDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{2C77C2F3-9602-C84E-9C3F-DE0D7F663514}" name="CPC" dataDxfId="169"/>
+    <tableColumn id="5" xr3:uid="{47D00704-BE8F-4440-BF1D-49398F51C47B}" name="PD" dataDxfId="168"/>
+    <tableColumn id="6" xr3:uid="{568B9501-3C39-4D49-AE83-5463E5AA43F9}" name="SD" dataDxfId="167"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2177E182-69D1-FB47-9F61-5EEEF5009111}" name="Table9" displayName="Table9" ref="A93:F95" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2177E182-69D1-FB47-9F61-5EEEF5009111}" name="Table9" displayName="Table9" ref="A93:F95" totalsRowShown="0" headerRowDxfId="164">
   <autoFilter ref="A93:F95" xr:uid="{713105D6-C097-A540-96E2-74085C8D355C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{32A9904F-5DF1-D141-BFB2-961239EF0309}" name="#"/>
-    <tableColumn id="2" xr3:uid="{C2231F29-B1B8-0B4F-B4C6-B50671407CC2}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{F826761F-77B6-DF42-A635-F0AFBC0AAD5F}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{3F2823FB-FA28-5E44-A2CD-8F2E82ABEC26}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{AB2C69DF-3990-CE45-9D49-83E82C772525}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{116930A3-9A25-854A-AC6E-697E7BB1C743}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{C2231F29-B1B8-0B4F-B4C6-B50671407CC2}" name="KW" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{F826761F-77B6-DF42-A635-F0AFBC0AAD5F}" name="VOLUME" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{3F2823FB-FA28-5E44-A2CD-8F2E82ABEC26}" name="CPC" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{AB2C69DF-3990-CE45-9D49-83E82C772525}" name="PD" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{116930A3-9A25-854A-AC6E-697E7BB1C743}" name="SD" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2571,17 +3780,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA13C51-9151-4F4E-9D73-B21191CD2586}">
-  <dimension ref="A1:J395"/>
+  <dimension ref="A1:J400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2673,8 +3882,8 @@
       <c r="F5" s="1">
         <v>29</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
         <v>362</v>
       </c>
     </row>
@@ -2697,9 +3906,9 @@
       <c r="F6" s="1">
         <v>18</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="5" t="s">
-        <v>364</v>
+      <c r="I6" s="9"/>
+      <c r="J6" s="6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2721,9 +3930,9 @@
       <c r="F7" s="1">
         <v>22</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5" t="s">
-        <v>363</v>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2917,19 +4126,19 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="12">
         <v>390</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="12">
         <v>27</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="12">
         <v>22</v>
       </c>
     </row>
@@ -2937,19 +4146,19 @@
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="12">
         <v>320</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="12">
         <v>42</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="12">
         <v>26</v>
       </c>
     </row>
@@ -2957,19 +4166,19 @@
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="12">
         <v>260</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="12">
         <v>41</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="12">
         <v>26</v>
       </c>
     </row>
@@ -2977,19 +4186,19 @@
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="12">
         <v>210</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="12">
         <v>83</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="12">
         <v>31</v>
       </c>
       <c r="H24" t="s">
@@ -2997,70 +4206,70 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="B25" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="12">
         <v>480</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="12">
         <v>44</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="12">
         <v>480</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="12">
         <v>52</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="12">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="12">
         <v>260</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="12">
         <v>17</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="12">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="12">
         <v>320</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="12">
         <v>17</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="12">
         <v>18</v>
       </c>
     </row>
@@ -3104,19 +4313,19 @@
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="10">
         <v>170</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="10">
         <v>1</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3124,19 +4333,19 @@
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="10">
         <v>70</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="10">
         <v>1</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="10">
         <v>14</v>
       </c>
     </row>
@@ -3144,19 +4353,19 @@
       <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="10">
         <v>40</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="10">
         <v>0</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="10">
         <v>13</v>
       </c>
     </row>
@@ -3164,19 +4373,19 @@
       <c r="A35">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="10">
         <v>30</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="10">
         <v>0</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3184,19 +4393,19 @@
       <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="10">
         <v>20</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="10">
         <v>38</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="10">
         <v>25</v>
       </c>
     </row>
@@ -3241,19 +4450,19 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="10">
         <v>40</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="10">
         <v>0</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="10">
         <v>13</v>
       </c>
     </row>
@@ -3303,19 +4512,19 @@
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="10">
         <v>110</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="10">
         <v>14</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="10">
         <v>23</v>
       </c>
     </row>
@@ -3323,19 +4532,19 @@
       <c r="A45">
         <v>2</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="10">
         <v>20</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="10">
         <v>100</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="10">
         <v>49</v>
       </c>
     </row>
@@ -3343,19 +4552,19 @@
       <c r="A46">
         <v>3</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="10">
         <v>90</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="10">
         <v>29</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="10">
         <v>27</v>
       </c>
     </row>
@@ -3363,19 +4572,19 @@
       <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="10">
         <v>10</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="10">
         <v>100</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="10">
         <v>36</v>
       </c>
     </row>
@@ -3383,19 +4592,19 @@
       <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="10">
         <v>10</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="10">
         <v>0</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="10">
         <v>13</v>
       </c>
     </row>
@@ -3403,36 +4612,36 @@
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="10">
         <v>10</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="10">
         <v>57</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="10">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="10">
         <v>10</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="10">
         <v>0</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="10">
         <v>18</v>
       </c>
     </row>
@@ -3476,19 +4685,19 @@
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="10">
         <v>50</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="10">
         <v>80</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="10">
         <v>30</v>
       </c>
     </row>
@@ -3496,19 +4705,19 @@
       <c r="A55">
         <v>2</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="10">
         <v>40</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="10">
         <v>89</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="10">
         <v>32</v>
       </c>
     </row>
@@ -3516,19 +4725,19 @@
       <c r="A56">
         <v>3</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="10">
         <v>30</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="10">
         <v>70</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="10">
         <v>27</v>
       </c>
     </row>
@@ -3536,19 +4745,19 @@
       <c r="A57">
         <v>4</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="10">
         <v>30</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="10">
         <v>68</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="10">
         <v>26</v>
       </c>
     </row>
@@ -3556,19 +4765,19 @@
       <c r="A58">
         <v>5</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="10">
         <v>30</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="10">
         <v>70</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="10">
         <v>26</v>
       </c>
     </row>
@@ -3576,19 +4785,19 @@
       <c r="A59">
         <v>6</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="10">
         <v>30</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="10">
         <v>30</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="10">
         <v>15</v>
       </c>
       <c r="G59" s="3" t="s">
@@ -3599,87 +4808,87 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="10">
         <v>390</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="10">
         <v>67</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="10">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="10">
         <v>10</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="10">
         <v>89</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="10">
         <v>10</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="10">
         <v>73</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="10">
         <v>20</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="10">
         <v>71</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="10">
         <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="10">
         <v>20</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="10">
         <v>60</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="10">
         <v>32</v>
       </c>
     </row>
@@ -3720,53 +4929,53 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="10">
         <v>70</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="10">
         <v>93</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="10">
         <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="10">
         <v>20</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="10">
         <v>79</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="10">
         <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="10">
         <v>10</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="10">
         <v>100</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="10">
         <v>36</v>
       </c>
     </row>
@@ -3839,19 +5048,19 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="10">
         <v>20</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="10">
         <v>75</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="10">
         <v>28</v>
       </c>
     </row>
@@ -3909,36 +5118,36 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+      <c r="B80" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="12">
         <v>70</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="12">
         <v>27</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+      <c r="B81" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="12">
         <v>40</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="12">
         <v>14</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="12">
         <v>18</v>
       </c>
     </row>
@@ -3979,36 +5188,36 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="10">
         <v>260</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="10">
         <v>27</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="10">
         <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="10">
         <v>260</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="10">
         <v>16</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="10">
         <v>23</v>
       </c>
     </row>
@@ -4030,19 +5239,19 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="10">
         <v>20</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="10">
         <v>16</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="10">
         <v>18</v>
       </c>
     </row>
@@ -4110,36 +5319,36 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="4">
         <v>40</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="4">
         <v>9</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="4">
         <v>10</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="4">
         <v>19</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="4">
         <v>19</v>
       </c>
     </row>
@@ -4174,70 +5383,70 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="4">
         <v>90</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="4">
         <v>32</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+      <c r="B101" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="4">
         <v>50</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="4">
         <v>8</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+      <c r="B102" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="4">
         <v>10</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="4">
         <v>17</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+      <c r="B103" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="4">
         <v>10</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="4">
         <v>0</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="4">
         <v>18</v>
       </c>
     </row>
@@ -4272,36 +5481,36 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="4">
         <v>10</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="4">
         <v>6</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="4">
         <v>10</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="4">
         <v>4</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="4">
         <v>15</v>
       </c>
     </row>
@@ -4336,36 +5545,36 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+      <c r="B113" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="4">
         <v>40</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="4">
         <v>5</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="4">
         <v>30</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="4">
         <v>10</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="4">
         <v>21</v>
       </c>
     </row>
@@ -4400,19 +5609,19 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
+      <c r="B119" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="4">
         <v>40</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="4">
         <v>67</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="4">
         <v>34</v>
       </c>
     </row>
@@ -4447,53 +5656,53 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
+      <c r="B125" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="4">
         <v>20</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="4">
         <v>10</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
+      <c r="B126" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="4">
         <v>10</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="4">
         <v>8</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
+      <c r="B127" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="4">
         <v>50</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="4">
         <v>26</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="4">
         <v>26</v>
       </c>
     </row>
@@ -4528,19 +5737,19 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
+      <c r="B131" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="4">
         <v>10</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="4">
         <v>37</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="4">
         <v>25</v>
       </c>
     </row>
@@ -4575,19 +5784,19 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
+      <c r="B135" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="4">
         <v>20</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="4">
         <v>38</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="4">
         <v>25</v>
       </c>
     </row>
@@ -4622,19 +5831,19 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
+      <c r="B139" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="4">
         <v>50</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="4">
         <v>27</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="4">
         <v>26</v>
       </c>
     </row>
@@ -4669,19 +5878,19 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
+      <c r="B144" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="4">
         <v>20</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="4">
         <v>46</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="4">
         <v>32</v>
       </c>
     </row>
@@ -4763,19 +5972,19 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
+      <c r="B153" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="4">
         <v>20</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="4">
         <v>31</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="4">
         <v>15</v>
       </c>
     </row>
@@ -4891,36 +6100,36 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
+      <c r="B165" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="4">
         <v>10</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="4">
         <v>36</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B166" t="s">
+      <c r="B166" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="4">
         <v>10</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="4">
         <v>7</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4955,19 +6164,19 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
+      <c r="B170" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="4">
         <v>10</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="4">
         <v>8</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="4">
         <v>8</v>
       </c>
     </row>
@@ -5002,36 +6211,36 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B174" t="s">
+      <c r="B174" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="8">
         <v>260</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="8">
         <v>29</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="8">
         <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B175" t="s">
+      <c r="B175" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="8">
         <v>50</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="8">
         <v>55</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="8">
         <v>30</v>
       </c>
     </row>
@@ -5052,1694 +6261,1686 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B177" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>0</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>1</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>2</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>3</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E180" t="s">
         <v>4</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F180" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B180" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
         <v>147</v>
       </c>
-      <c r="C180">
+      <c r="C181">
         <v>50</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D181" t="s">
         <v>148</v>
       </c>
-      <c r="E180">
+      <c r="E181">
         <v>16</v>
       </c>
-      <c r="F180">
+      <c r="F181">
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>0</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>1</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>2</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>3</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E184" t="s">
         <v>4</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F184" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B185" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C184">
+      <c r="C185" s="8">
         <v>70</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E184">
+      <c r="E185" s="8">
         <v>17</v>
       </c>
-      <c r="F184">
+      <c r="F185" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>0</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>1</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
         <v>2</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" t="s">
         <v>3</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E189" t="s">
         <v>4</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F189" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>153</v>
-      </c>
-      <c r="C189">
-        <v>70</v>
-      </c>
-      <c r="D189" t="s">
-        <v>154</v>
-      </c>
-      <c r="E189">
-        <v>91</v>
-      </c>
-      <c r="F189">
-        <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
+        <v>153</v>
+      </c>
+      <c r="C190">
+        <v>70</v>
+      </c>
+      <c r="D190" t="s">
+        <v>154</v>
+      </c>
+      <c r="E190">
+        <v>91</v>
+      </c>
+      <c r="F190">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B191" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C190">
+      <c r="C191" s="4">
         <v>40</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E190">
+      <c r="E191" s="4">
         <v>82</v>
       </c>
-      <c r="F190">
+      <c r="F191" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B192" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C191">
+      <c r="C192" s="4">
         <v>20</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D192" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E191">
+      <c r="E192" s="4">
         <v>67</v>
       </c>
-      <c r="F191">
+      <c r="F192" s="4">
         <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B192" t="s">
-        <v>226</v>
-      </c>
-      <c r="C192">
-        <v>10</v>
-      </c>
-      <c r="D192" t="s">
-        <v>227</v>
-      </c>
-      <c r="E192">
-        <v>59</v>
-      </c>
-      <c r="F192">
-        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
+        <v>226</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>227</v>
+      </c>
+      <c r="E193">
+        <v>59</v>
+      </c>
+      <c r="F193">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B194" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C193">
+      <c r="C194" s="4">
         <v>20</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D194" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E193">
+      <c r="E194" s="4">
         <v>98</v>
       </c>
-      <c r="F193">
+      <c r="F194" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B195" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C194">
+      <c r="C195" s="4">
         <v>10</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E194">
+      <c r="E195" s="4">
         <v>91</v>
       </c>
-      <c r="F194">
+      <c r="F195" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>0</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>1</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>2</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>3</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E198" t="s">
         <v>4</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F198" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B198" t="s">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
         <v>158</v>
       </c>
-      <c r="C198">
+      <c r="C199">
         <v>90</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D199" t="s">
         <v>23</v>
       </c>
-      <c r="E198">
+      <c r="E199">
         <v>100</v>
       </c>
-      <c r="F198">
+      <c r="F199">
         <v>44</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>0</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>1</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C202" t="s">
         <v>2</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D202" t="s">
         <v>3</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E202" t="s">
         <v>4</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F202" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B202" t="s">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B203" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C202">
+      <c r="C203" s="4">
         <v>90</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D203" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E202">
+      <c r="E203" s="4">
         <v>87</v>
       </c>
-      <c r="F202">
+      <c r="F203" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B203" t="s">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B204" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C203">
+      <c r="C204" s="4">
         <v>10</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D204" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E203">
+      <c r="E204" s="4">
         <v>100</v>
       </c>
-      <c r="F203">
+      <c r="F204" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>0</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>1</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>2</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D207" t="s">
         <v>3</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E207" t="s">
         <v>4</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F207" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B207" t="s">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B208" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C207">
+      <c r="C208" s="4">
         <v>70</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D208" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E207">
+      <c r="E208" s="4">
         <v>84</v>
       </c>
-      <c r="F207">
+      <c r="F208" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B209" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C208">
+      <c r="C209" s="4">
         <v>50</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D209" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E208">
+      <c r="E209" s="4">
         <v>99</v>
       </c>
-      <c r="F208">
+      <c r="F209" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>0</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>1</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C213" t="s">
         <v>2</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D213" t="s">
         <v>3</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E213" t="s">
         <v>4</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F213" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B213" t="s">
-        <v>169</v>
-      </c>
-      <c r="C213">
-        <v>70</v>
-      </c>
-      <c r="D213" t="s">
-        <v>170</v>
-      </c>
-      <c r="E213">
-        <v>85</v>
-      </c>
-      <c r="F213">
-        <v>44</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C214">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D214" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E214">
         <v>85</v>
       </c>
       <c r="F214">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C215">
         <v>40</v>
       </c>
       <c r="D215" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E215">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F215">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C216">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D216" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E216">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="F216">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C217">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D217" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E217">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F217">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
+        <v>184</v>
+      </c>
+      <c r="C218">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>185</v>
+      </c>
+      <c r="E218">
+        <v>100</v>
+      </c>
+      <c r="F218">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
         <v>245</v>
       </c>
-      <c r="C218">
+      <c r="C219">
         <v>30</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D219" t="s">
         <v>176</v>
       </c>
-      <c r="E218">
+      <c r="E219">
         <v>87</v>
       </c>
-      <c r="F218">
+      <c r="F219">
         <v>40</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>0</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>1</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C222" t="s">
         <v>2</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D222" t="s">
         <v>3</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E222" t="s">
         <v>4</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F222" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B222" t="s">
-        <v>179</v>
-      </c>
-      <c r="C222">
-        <v>20</v>
-      </c>
-      <c r="D222" t="s">
-        <v>180</v>
-      </c>
-      <c r="E222">
-        <v>53</v>
-      </c>
-      <c r="F222">
-        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C223">
         <v>20</v>
       </c>
       <c r="D223" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E223">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F223">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
+        <v>181</v>
+      </c>
+      <c r="C224">
+        <v>20</v>
+      </c>
+      <c r="D224" t="s">
+        <v>176</v>
+      </c>
+      <c r="E224">
+        <v>25</v>
+      </c>
+      <c r="F224">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
         <v>186</v>
       </c>
-      <c r="C224">
+      <c r="C225">
         <v>40</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D225" t="s">
         <v>187</v>
       </c>
-      <c r="E224">
+      <c r="E225">
         <v>32</v>
       </c>
-      <c r="F224">
+      <c r="F225">
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>0</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" t="s">
         <v>1</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C228" t="s">
         <v>2</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D228" t="s">
         <v>3</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E228" t="s">
         <v>4</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F228" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B228" t="s">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
         <v>188</v>
       </c>
-      <c r="C228">
+      <c r="C229">
         <v>40</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D229" t="s">
         <v>62</v>
       </c>
-      <c r="E228">
+      <c r="E229">
         <v>76</v>
       </c>
-      <c r="F228">
+      <c r="F229">
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>0</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>1</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C232" t="s">
         <v>2</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D232" t="s">
         <v>3</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E232" t="s">
         <v>4</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F232" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B232" t="s">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B233" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C232">
+      <c r="C233" s="4">
         <v>30</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D233" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E232">
+      <c r="E233" s="4">
         <v>49</v>
       </c>
-      <c r="F232">
+      <c r="F233" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>0</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>1</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C236" t="s">
         <v>2</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D236" t="s">
         <v>3</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E236" t="s">
         <v>4</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F236" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B236" t="s">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B237" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C236">
+      <c r="C237" s="4">
         <v>20</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D237" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E236">
+      <c r="E237" s="4">
         <v>0</v>
       </c>
-      <c r="F236">
+      <c r="F237" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>0</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>1</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C241" t="s">
         <v>2</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D241" t="s">
         <v>3</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E241" t="s">
         <v>4</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F241" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B241" t="s">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B242" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C241">
+      <c r="C242" s="4">
         <v>30</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D242" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E241">
+      <c r="E242" s="4">
         <v>73</v>
       </c>
-      <c r="F241">
+      <c r="F242" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="2" t="s">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
         <v>0</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>1</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C246" t="s">
         <v>2</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D246" t="s">
         <v>3</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E246" t="s">
         <v>4</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F246" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B246" t="s">
-        <v>199</v>
-      </c>
-      <c r="C246">
-        <v>20</v>
-      </c>
-      <c r="D246" t="s">
-        <v>140</v>
-      </c>
-      <c r="E246">
-        <v>33</v>
-      </c>
-      <c r="F246">
-        <v>23</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
+        <v>199</v>
+      </c>
+      <c r="C247">
+        <v>20</v>
+      </c>
+      <c r="D247" t="s">
+        <v>140</v>
+      </c>
+      <c r="E247">
+        <v>33</v>
+      </c>
+      <c r="F247">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
         <v>270</v>
       </c>
-      <c r="C247">
+      <c r="C248">
         <v>10</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D248" t="s">
         <v>271</v>
       </c>
-      <c r="E247">
+      <c r="E248">
         <v>92</v>
       </c>
-      <c r="F247">
+      <c r="F248">
         <v>33</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="2" t="s">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>0</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>1</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C251" t="s">
         <v>2</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D251" t="s">
         <v>3</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E251" t="s">
         <v>4</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F251" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B251" t="s">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B252" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C251">
+      <c r="C252" s="4">
         <v>20</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D252" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E251">
+      <c r="E252" s="4">
         <v>33</v>
       </c>
-      <c r="F251">
+      <c r="F252" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>0</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>1</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C256" t="s">
         <v>2</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D256" t="s">
         <v>3</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E256" t="s">
         <v>4</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F256" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B256" t="s">
-        <v>203</v>
-      </c>
-      <c r="C256">
-        <v>20</v>
-      </c>
-      <c r="D256" t="s">
-        <v>23</v>
-      </c>
-      <c r="E256">
-        <v>100</v>
-      </c>
-      <c r="F256">
-        <v>36</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="C257">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D257" t="s">
         <v>23</v>
       </c>
       <c r="E257">
+        <v>100</v>
+      </c>
+      <c r="F257">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>272</v>
+      </c>
+      <c r="C258">
+        <v>10</v>
+      </c>
+      <c r="D258" t="s">
+        <v>23</v>
+      </c>
+      <c r="E258">
         <v>94</v>
       </c>
-      <c r="F257">
+      <c r="F258">
         <v>47</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>0</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>1</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C261" t="s">
         <v>2</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D261" t="s">
         <v>3</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E261" t="s">
         <v>4</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F261" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B261" t="s">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
         <v>205</v>
       </c>
-      <c r="C261">
+      <c r="C262">
         <v>20</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D262" t="s">
         <v>23</v>
       </c>
-      <c r="E261">
+      <c r="E262">
         <v>79</v>
       </c>
-      <c r="F261">
+      <c r="F262">
         <v>29</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="2" t="s">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
         <v>0</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>1</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C266" t="s">
         <v>2</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D266" t="s">
         <v>3</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E266" t="s">
         <v>4</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F266" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B267" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C266">
+      <c r="C267" s="4">
         <v>20</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D267" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E266">
+      <c r="E267" s="4">
         <v>84</v>
       </c>
-      <c r="F266">
+      <c r="F267" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B267" t="s">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B268" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C267">
+      <c r="C268" s="4">
         <v>20</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D268" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E267">
+      <c r="E268" s="4">
         <v>67</v>
       </c>
-      <c r="F267">
+      <c r="F268" s="4">
         <v>26</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B268" t="s">
-        <v>211</v>
-      </c>
-      <c r="C268">
-        <v>20</v>
-      </c>
-      <c r="D268" t="s">
-        <v>23</v>
-      </c>
-      <c r="E268">
-        <v>17</v>
-      </c>
-      <c r="F268">
-        <v>19</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
+        <v>211</v>
+      </c>
+      <c r="C269">
+        <v>20</v>
+      </c>
+      <c r="D269" t="s">
+        <v>23</v>
+      </c>
+      <c r="E269">
+        <v>17</v>
+      </c>
+      <c r="F269">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B270" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C269">
+      <c r="C270" s="4">
         <v>30</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D270" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E269">
+      <c r="E270" s="4">
         <v>47</v>
       </c>
-      <c r="F269">
+      <c r="F270" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B270" t="s">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B271" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C270">
+      <c r="C271" s="4">
         <v>10</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D271" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E270">
+      <c r="E271" s="4">
         <v>100</v>
       </c>
-      <c r="F270">
+      <c r="F271" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>0</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B275" t="s">
         <v>1</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C275" t="s">
         <v>2</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D275" t="s">
         <v>3</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E275" t="s">
         <v>4</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F275" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B275" t="s">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B276" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C275">
+      <c r="C276" s="4">
         <v>30</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D276" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E275">
+      <c r="E276" s="4">
         <v>91</v>
       </c>
-      <c r="F275">
+      <c r="F276" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="2" t="s">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="F280" s="2"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
         <v>0</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B282" t="s">
         <v>1</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C282" t="s">
         <v>2</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D282" t="s">
         <v>3</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E282" t="s">
         <v>4</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F282" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B282" t="s">
-        <v>220</v>
-      </c>
-      <c r="C282">
-        <v>20</v>
-      </c>
-      <c r="D282" t="s">
-        <v>221</v>
-      </c>
-      <c r="E282">
-        <v>60</v>
-      </c>
-      <c r="F282">
-        <v>37</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C283">
         <v>20</v>
       </c>
       <c r="D283" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E283">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F283">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C284">
         <v>20</v>
       </c>
       <c r="D284" t="s">
+        <v>223</v>
+      </c>
+      <c r="E284">
+        <v>31</v>
+      </c>
+      <c r="F284">
         <v>23</v>
       </c>
-      <c r="E284">
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
+        <v>224</v>
+      </c>
+      <c r="C285">
+        <v>20</v>
+      </c>
+      <c r="D285" t="s">
+        <v>23</v>
+      </c>
+      <c r="E285">
         <v>29</v>
       </c>
-      <c r="F284">
+      <c r="F285">
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="2" t="s">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="F288" s="2"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
         <v>0</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B290" t="s">
         <v>1</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C290" t="s">
         <v>2</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D290" t="s">
         <v>3</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E290" t="s">
         <v>4</v>
       </c>
-      <c r="F289" t="s">
+      <c r="F290" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B290" t="s">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B291" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C290">
+      <c r="C291" s="4">
         <v>20</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D291" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E290">
+      <c r="E291" s="4">
         <v>34</v>
       </c>
-      <c r="F290">
+      <c r="F291" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B291" t="s">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B292" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C291">
+      <c r="C292" s="4">
         <v>10</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D292" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E291">
+      <c r="E292" s="4">
         <v>62</v>
       </c>
-      <c r="F291">
+      <c r="F292" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="2" t="s">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
         <v>0</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B297" t="s">
         <v>1</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C297" t="s">
         <v>2</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D297" t="s">
         <v>3</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E297" t="s">
         <v>4</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F297" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B297" t="s">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B298" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C297">
+      <c r="C298" s="4">
         <v>0</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D298" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E297">
+      <c r="E298" s="4">
         <v>0</v>
       </c>
-      <c r="F297">
+      <c r="F298" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="2" t="s">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-      <c r="F300" s="2"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>0</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B302" t="s">
         <v>1</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C302" t="s">
         <v>2</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D302" t="s">
         <v>3</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E302" t="s">
         <v>4</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F302" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B302" t="s">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
         <v>243</v>
       </c>
-      <c r="C302">
+      <c r="C303">
         <v>10</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D303" t="s">
         <v>23</v>
       </c>
-      <c r="E302">
+      <c r="E303">
         <v>57</v>
       </c>
-      <c r="F302">
+      <c r="F303">
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="2" t="s">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-      <c r="F306" s="2"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
         <v>0</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B308" t="s">
         <v>1</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C308" t="s">
         <v>2</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D308" t="s">
         <v>3</v>
       </c>
-      <c r="E307" t="s">
+      <c r="E308" t="s">
         <v>4</v>
       </c>
-      <c r="F307" t="s">
+      <c r="F308" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B308" t="s">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
         <v>246</v>
       </c>
-      <c r="C308">
+      <c r="C309">
         <v>10</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D309" t="s">
         <v>247</v>
       </c>
-      <c r="E308">
+      <c r="E309">
         <v>57</v>
       </c>
-      <c r="F308">
+      <c r="F309">
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="2" t="s">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="F311" s="2"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
         <v>0</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B313" t="s">
         <v>1</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C313" t="s">
         <v>2</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D313" t="s">
         <v>3</v>
       </c>
-      <c r="E312" t="s">
+      <c r="E313" t="s">
         <v>4</v>
       </c>
-      <c r="F312" t="s">
+      <c r="F313" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B313" t="s">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B314" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C313">
+      <c r="C314" s="4">
         <v>40</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D314" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E313">
+      <c r="E314" s="4">
         <v>73</v>
       </c>
-      <c r="F313">
+      <c r="F314" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B314" t="s">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B315" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C314">
+      <c r="C315" s="4">
         <v>50</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D315" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E314">
+      <c r="E315" s="4">
         <v>87</v>
       </c>
-      <c r="F314">
+      <c r="F315" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="2" t="s">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
         <v>0</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B319" t="s">
         <v>1</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C319" t="s">
         <v>2</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D319" t="s">
         <v>3</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E319" t="s">
         <v>4</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F319" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B319" t="s">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B320" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C319">
+      <c r="C320" s="8">
         <v>390</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D320" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E319">
+      <c r="E320" s="8">
         <v>49</v>
       </c>
-      <c r="F319">
+      <c r="F320" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B320" t="s">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
         <v>286</v>
-      </c>
-      <c r="C320">
-        <v>10</v>
-      </c>
-      <c r="D320" t="s">
-        <v>287</v>
-      </c>
-      <c r="E320">
-        <v>62</v>
-      </c>
-      <c r="F320">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B321" t="s">
-        <v>288</v>
       </c>
       <c r="C321">
         <v>10</v>
       </c>
       <c r="D321" t="s">
+        <v>287</v>
+      </c>
+      <c r="E321">
+        <v>62</v>
+      </c>
+      <c r="F321">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>288</v>
+      </c>
+      <c r="C322">
+        <v>10</v>
+      </c>
+      <c r="D322" t="s">
         <v>23</v>
       </c>
-      <c r="E321">
+      <c r="E322">
         <v>50</v>
       </c>
-      <c r="F321">
+      <c r="F322">
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B322" t="s">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B323" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C322">
+      <c r="C323" s="8">
         <v>390</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D323" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E322">
+      <c r="E323" s="8">
         <v>81</v>
       </c>
-      <c r="F322">
+      <c r="F323" s="8">
         <v>43</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B323" t="s">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B324" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C323">
+      <c r="C324" s="8">
         <v>20</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D324" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E323">
+      <c r="E324" s="8">
         <v>83</v>
       </c>
-      <c r="F323">
+      <c r="F324" s="8">
         <v>38</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B324" t="s">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
         <v>270</v>
-      </c>
-      <c r="C324">
-        <v>10</v>
-      </c>
-      <c r="D324" t="s">
-        <v>154</v>
-      </c>
-      <c r="E324">
-        <v>92</v>
-      </c>
-      <c r="F324">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B325" t="s">
-        <v>293</v>
       </c>
       <c r="C325">
         <v>10</v>
       </c>
       <c r="D325" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="F325">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C326">
         <v>10</v>
@@ -6754,764 +7955,772 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="2" t="s">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
+        <v>294</v>
+      </c>
+      <c r="C327">
+        <v>10</v>
+      </c>
+      <c r="D327" t="s">
+        <v>23</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-      <c r="F329" s="2"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
         <v>0</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>1</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C331" t="s">
         <v>2</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D331" t="s">
         <v>3</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E331" t="s">
         <v>4</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F331" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B331" t="s">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B332" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C331">
+      <c r="C332" s="8">
         <v>880</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D332" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E331">
+      <c r="E332" s="8">
         <v>44</v>
       </c>
-      <c r="F331">
+      <c r="F332" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B332" t="s">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B333" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C332">
+      <c r="C333" s="8">
         <v>110</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D333" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E332">
+      <c r="E333" s="8">
         <v>48</v>
       </c>
-      <c r="F332">
+      <c r="F333" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B333" t="s">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B334" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C333">
+      <c r="C334" s="8">
         <v>110</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D334" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="E333">
+      <c r="E334" s="8">
         <v>14</v>
       </c>
-      <c r="F333">
+      <c r="F334" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B334" t="s">
+      <c r="G334" s="11"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
         <v>302</v>
       </c>
-      <c r="C334">
+      <c r="C335">
         <v>90</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D335" t="s">
         <v>303</v>
       </c>
-      <c r="E334">
+      <c r="E335">
         <v>16</v>
       </c>
-      <c r="F334">
+      <c r="F335">
         <v>23</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B335" t="s">
+      <c r="G335" s="11"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B336" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C335">
+      <c r="C336" s="8">
         <v>70</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D336" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E335">
+      <c r="E336" s="8">
         <v>37</v>
       </c>
-      <c r="F335">
+      <c r="F336" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B336" t="s">
+      <c r="G336" s="11"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B337" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C336">
+      <c r="C337" s="8">
         <v>50</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D337" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E336">
+      <c r="E337" s="8">
         <v>11</v>
       </c>
-      <c r="F336">
+      <c r="F337" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B337" t="s">
+      <c r="G337" s="11"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B338" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C337">
+      <c r="C338" s="8">
         <v>20</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D338" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E337">
+      <c r="E338" s="8">
         <v>38</v>
       </c>
-      <c r="F337">
+      <c r="F338" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="2" t="s">
+      <c r="G338" s="11"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G339" s="11"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
-      <c r="F340" s="2"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="2"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
         <v>0</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B342" t="s">
         <v>1</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C342" t="s">
         <v>2</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D342" t="s">
         <v>3</v>
       </c>
-      <c r="E341" t="s">
+      <c r="E342" t="s">
         <v>4</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F342" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B342" t="s">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
         <v>310</v>
-      </c>
-      <c r="C342">
-        <v>260</v>
-      </c>
-      <c r="D342" t="s">
-        <v>311</v>
-      </c>
-      <c r="E342">
-        <v>44</v>
-      </c>
-      <c r="F342">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B343" t="s">
-        <v>312</v>
       </c>
       <c r="C343">
         <v>260</v>
       </c>
       <c r="D343" t="s">
+        <v>311</v>
+      </c>
+      <c r="E343">
+        <v>44</v>
+      </c>
+      <c r="F343">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B344" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C344" s="4">
+        <v>260</v>
+      </c>
+      <c r="D344" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E343">
+      <c r="E344" s="4">
         <v>23</v>
       </c>
-      <c r="F343">
+      <c r="F344" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B344" t="s">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
         <v>313</v>
       </c>
-      <c r="C344">
+      <c r="C345">
         <v>210</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D345" t="s">
         <v>314</v>
       </c>
-      <c r="E344">
+      <c r="E345">
         <v>13</v>
       </c>
-      <c r="F344">
+      <c r="F345">
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B345" t="s">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
         <v>315</v>
-      </c>
-      <c r="C345">
-        <v>90</v>
-      </c>
-      <c r="D345" t="s">
-        <v>85</v>
-      </c>
-      <c r="E345">
-        <v>47</v>
-      </c>
-      <c r="F345">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B346" t="s">
-        <v>316</v>
       </c>
       <c r="C346">
         <v>90</v>
       </c>
       <c r="D346" t="s">
+        <v>85</v>
+      </c>
+      <c r="E346">
+        <v>47</v>
+      </c>
+      <c r="F346">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>316</v>
+      </c>
+      <c r="C347">
+        <v>90</v>
+      </c>
+      <c r="D347" t="s">
         <v>317</v>
       </c>
-      <c r="E346">
+      <c r="E347">
         <v>40</v>
       </c>
-      <c r="F346">
+      <c r="F347">
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B347" t="s">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
         <v>318</v>
       </c>
-      <c r="C347">
+      <c r="C348">
         <v>70</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D348" t="s">
         <v>319</v>
       </c>
-      <c r="E347">
+      <c r="E348">
         <v>33</v>
       </c>
-      <c r="F347">
+      <c r="F348">
         <v>29</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B348" t="s">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
         <v>320</v>
       </c>
-      <c r="C348">
+      <c r="C349">
         <v>10</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D349" t="s">
         <v>321</v>
       </c>
-      <c r="E348">
+      <c r="E349">
         <v>87</v>
       </c>
-      <c r="F348">
+      <c r="F349">
         <v>40</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B349" t="s">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
         <v>329</v>
       </c>
-      <c r="C349">
+      <c r="C350">
         <v>20</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D350" t="s">
         <v>170</v>
       </c>
-      <c r="E349">
+      <c r="E350">
         <v>61</v>
       </c>
-      <c r="F349">
+      <c r="F350">
         <v>32</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B350" t="s">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
         <v>338</v>
       </c>
-      <c r="C350">
+      <c r="C351">
         <v>10</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D351" t="s">
         <v>339</v>
       </c>
-      <c r="E350">
+      <c r="E351">
         <v>26</v>
       </c>
-      <c r="F350">
+      <c r="F351">
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B351" t="s">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
         <v>345</v>
       </c>
-      <c r="C351">
+      <c r="C352">
         <v>30</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D352" t="s">
         <v>94</v>
       </c>
-      <c r="E351">
+      <c r="E352">
         <v>48</v>
       </c>
-      <c r="F351">
+      <c r="F352">
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B352" t="s">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
         <v>346</v>
       </c>
-      <c r="C352">
+      <c r="C353">
         <v>20</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D353" t="s">
         <v>23</v>
       </c>
-      <c r="E352">
+      <c r="E353">
         <v>30</v>
       </c>
-      <c r="F352">
+      <c r="F353">
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A354" s="2" t="s">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
         <v>0</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B356" t="s">
         <v>1</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C356" t="s">
         <v>2</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D356" t="s">
         <v>3</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E356" t="s">
         <v>4</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F356" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B356" t="s">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B357" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C356">
+      <c r="C357" s="4">
         <v>70</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D357" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E356">
+      <c r="E357" s="4">
         <v>37</v>
       </c>
-      <c r="F356">
+      <c r="F357" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B357" t="s">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B358" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C357">
+      <c r="C358" s="4">
         <v>10</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D358" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E357">
+      <c r="E358" s="4">
         <v>46</v>
       </c>
-      <c r="F357">
+      <c r="F358" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359" s="2" t="s">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="2"/>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+      <c r="E360" s="2"/>
+      <c r="F360" s="2"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
         <v>0</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B361" t="s">
         <v>1</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C361" t="s">
         <v>2</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D361" t="s">
         <v>3</v>
       </c>
-      <c r="E360" t="s">
+      <c r="E361" t="s">
         <v>4</v>
       </c>
-      <c r="F360" t="s">
+      <c r="F361" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B361" t="s">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B362" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C361">
+      <c r="C362" s="4">
         <v>110</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D362" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="E361">
+      <c r="E362" s="4">
         <v>16</v>
       </c>
-      <c r="F361">
+      <c r="F362" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B362" t="s">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B363" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C362">
+      <c r="C363" s="4">
         <v>90</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D363" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E362">
+      <c r="E363" s="4">
         <v>5</v>
       </c>
-      <c r="F362">
+      <c r="F363" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B365" s="2" t="s">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B366" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
-      <c r="F365" s="2"/>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="2"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
         <v>0</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B367" t="s">
         <v>1</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C367" t="s">
         <v>2</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D367" t="s">
         <v>3</v>
       </c>
-      <c r="E366" t="s">
+      <c r="E367" t="s">
         <v>4</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F367" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B367" t="s">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B368" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C367">
+      <c r="C368" s="4">
         <v>90</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D368" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E367">
+      <c r="E368" s="4">
         <v>8</v>
       </c>
-      <c r="F367">
+      <c r="F368" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B368" t="s">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B369" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C368">
+      <c r="C369" s="4">
         <v>70</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D369" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E368">
+      <c r="E369" s="4">
         <v>9</v>
       </c>
-      <c r="F368">
+      <c r="F369" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B369" t="s">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B370" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C369">
+      <c r="C370" s="4">
         <v>40</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D370" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E369">
+      <c r="E370" s="4">
         <v>11</v>
       </c>
-      <c r="F369">
+      <c r="F370" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B370" t="s">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B371" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C370">
+      <c r="C371" s="4">
         <v>20</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D371" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E370">
+      <c r="E371" s="4">
         <v>32</v>
       </c>
-      <c r="F370">
+      <c r="F371" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B371" t="s">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B372" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C371">
+      <c r="C372" s="4">
         <v>10</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D372" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E371">
+      <c r="E372" s="4">
         <v>29</v>
       </c>
-      <c r="F371">
+      <c r="F372" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B372" t="s">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
         <v>340</v>
       </c>
-      <c r="C372">
+      <c r="C373">
         <v>10</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D373" t="s">
         <v>23</v>
       </c>
-      <c r="E372">
+      <c r="E373">
         <v>57</v>
       </c>
-      <c r="F372">
+      <c r="F373">
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B374" s="2" t="s">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B375" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
-      <c r="E374" s="2"/>
-      <c r="F374" s="2"/>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
         <v>0</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B376" t="s">
         <v>1</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C376" t="s">
         <v>2</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D376" t="s">
         <v>3</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E376" t="s">
         <v>4</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F376" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B376" t="s">
-        <v>342</v>
-      </c>
-      <c r="C376">
-        <v>70</v>
-      </c>
-      <c r="D376" t="s">
-        <v>343</v>
-      </c>
-      <c r="E376">
-        <v>14</v>
-      </c>
-      <c r="F376">
-        <v>23</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
+        <v>342</v>
+      </c>
+      <c r="C377">
+        <v>70</v>
+      </c>
+      <c r="D377" t="s">
+        <v>343</v>
+      </c>
+      <c r="E377">
+        <v>14</v>
+      </c>
+      <c r="F377">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B378" t="s">
         <v>344</v>
       </c>
-      <c r="C377">
+      <c r="C378">
         <v>10</v>
       </c>
-      <c r="D377" t="s">
+      <c r="D378" t="s">
         <v>247</v>
       </c>
-      <c r="E377">
+      <c r="E378">
         <v>40</v>
       </c>
-      <c r="F377">
+      <c r="F378">
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A379" s="2" t="s">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-      <c r="D379" s="2"/>
-      <c r="E379" s="2"/>
-      <c r="F379" s="2"/>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+      <c r="E380" s="2"/>
+      <c r="F380" s="2"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
         <v>0</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B381" t="s">
         <v>1</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C381" t="s">
         <v>2</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D381" t="s">
         <v>3</v>
       </c>
-      <c r="E380" t="s">
+      <c r="E381" t="s">
         <v>4</v>
       </c>
-      <c r="F380" t="s">
+      <c r="F381" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B381" t="s">
-        <v>348</v>
-      </c>
-      <c r="C381">
-        <v>40</v>
-      </c>
-      <c r="D381" t="s">
-        <v>210</v>
-      </c>
-      <c r="E381">
-        <v>7</v>
-      </c>
-      <c r="F381">
-        <v>21</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C382">
         <v>40</v>
       </c>
       <c r="D382" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="E382">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F382">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C383">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D383" t="s">
         <v>23</v>
@@ -7524,59 +8733,59 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B384" t="s">
+      <c r="B384" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C384" s="4">
+        <v>20</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E384" s="4">
+        <v>0</v>
+      </c>
+      <c r="F384" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B385" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C384">
+      <c r="C385" s="4">
         <v>10</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D385" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E384">
+      <c r="E385" s="4">
         <v>46</v>
       </c>
-      <c r="F384">
+      <c r="F385" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B385" t="s">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B386" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C385">
+      <c r="C386" s="4">
         <v>10</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D386" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E385">
+      <c r="E386" s="4">
         <v>14</v>
       </c>
-      <c r="F385">
+      <c r="F386" s="4">
         <v>23</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B386" t="s">
-        <v>353</v>
-      </c>
-      <c r="C386">
-        <v>10</v>
-      </c>
-      <c r="D386" t="s">
-        <v>23</v>
-      </c>
-      <c r="E386">
-        <v>0</v>
-      </c>
-      <c r="F386">
-        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C387">
         <v>10</v>
@@ -7588,161 +8797,218 @@
         <v>0</v>
       </c>
       <c r="F387">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B388" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C388" s="4">
+        <v>10</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E388" s="4">
+        <v>0</v>
+      </c>
+      <c r="F388" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B388" t="s">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B389" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C388">
+      <c r="C389" s="4">
         <v>10</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D389" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E388">
+      <c r="E389" s="4">
         <v>29</v>
       </c>
-      <c r="F388">
+      <c r="F389" s="4">
         <v>22</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B389" t="s">
-        <v>356</v>
-      </c>
-      <c r="C389">
-        <v>20</v>
-      </c>
-      <c r="D389" t="s">
-        <v>23</v>
-      </c>
-      <c r="E389">
-        <v>6</v>
-      </c>
-      <c r="F389">
-        <v>15</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C390">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D390" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E390">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F390">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
+        <v>357</v>
+      </c>
+      <c r="C391">
+        <v>30</v>
+      </c>
+      <c r="D391" t="s">
+        <v>47</v>
+      </c>
+      <c r="E391">
+        <v>27</v>
+      </c>
+      <c r="F391">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B392" t="s">
         <v>358</v>
       </c>
-      <c r="C391">
+      <c r="C392">
         <v>40</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D392" t="s">
         <v>23</v>
       </c>
-      <c r="E391">
+      <c r="E392">
         <v>2</v>
       </c>
-      <c r="F391">
+      <c r="F392">
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A393" s="2" t="s">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
-      <c r="E393" s="2"/>
-      <c r="F393" s="2"/>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="E394" s="2"/>
+      <c r="F394" s="2"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
         <v>0</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B395" t="s">
         <v>1</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C395" t="s">
         <v>2</v>
       </c>
-      <c r="D394" t="s">
+      <c r="D395" t="s">
         <v>3</v>
       </c>
-      <c r="E394" t="s">
+      <c r="E395" t="s">
         <v>4</v>
       </c>
-      <c r="F394" t="s">
+      <c r="F395" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B395" t="s">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B396" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C395">
+      <c r="C396" s="4">
         <v>1300</v>
       </c>
-      <c r="D395" t="s">
+      <c r="D396" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="E395">
+      <c r="E396" s="4">
         <v>56</v>
       </c>
-      <c r="F395">
+      <c r="F396" s="4">
         <v>48</v>
       </c>
     </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+      <c r="E398" s="2"/>
+      <c r="F398" s="2"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>0</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1</v>
+      </c>
+      <c r="C399" t="s">
+        <v>2</v>
+      </c>
+      <c r="D399" t="s">
+        <v>3</v>
+      </c>
+      <c r="E399" t="s">
+        <v>4</v>
+      </c>
+      <c r="F399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B400" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C400" s="8"/>
+      <c r="D400" s="8"/>
+      <c r="E400" s="8"/>
+      <c r="F400" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A393:F393"/>
+  <mergeCells count="59">
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="A380:F380"/>
+    <mergeCell ref="A394:F394"/>
+    <mergeCell ref="A398:F398"/>
     <mergeCell ref="G59:J59"/>
-    <mergeCell ref="A317:F317"/>
-    <mergeCell ref="A329:F329"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="A354:F354"/>
-    <mergeCell ref="A359:F359"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A288:F288"/>
-    <mergeCell ref="A295:F295"/>
-    <mergeCell ref="A300:F300"/>
-    <mergeCell ref="A306:F306"/>
-    <mergeCell ref="A311:F311"/>
-    <mergeCell ref="A239:F239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A249:F249"/>
-    <mergeCell ref="A254:F254"/>
-    <mergeCell ref="A259:F259"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="A211:F211"/>
-    <mergeCell ref="A220:F220"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:F230"/>
-    <mergeCell ref="A234:F234"/>
+    <mergeCell ref="A318:F318"/>
+    <mergeCell ref="A330:F330"/>
+    <mergeCell ref="A341:F341"/>
+    <mergeCell ref="A355:F355"/>
+    <mergeCell ref="A360:F360"/>
+    <mergeCell ref="A281:F281"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A296:F296"/>
+    <mergeCell ref="A301:F301"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A312:F312"/>
+    <mergeCell ref="A240:F240"/>
+    <mergeCell ref="A245:F245"/>
+    <mergeCell ref="A250:F250"/>
+    <mergeCell ref="A255:F255"/>
+    <mergeCell ref="A260:F260"/>
+    <mergeCell ref="A274:F274"/>
+    <mergeCell ref="A265:F265"/>
+    <mergeCell ref="A206:F206"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="A221:F221"/>
+    <mergeCell ref="A227:F227"/>
+    <mergeCell ref="A231:F231"/>
+    <mergeCell ref="A235:F235"/>
     <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A178:F178"/>
-    <mergeCell ref="A182:F182"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A201:F201"/>
     <mergeCell ref="A146:F146"/>
     <mergeCell ref="A151:F151"/>
     <mergeCell ref="A156:F156"/>
@@ -7772,7 +9038,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="57">
+  <tableParts count="58">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -7830,6 +9096,7 @@
     <tablePart r:id="rId56"/>
     <tablePart r:id="rId57"/>
     <tablePart r:id="rId58"/>
+    <tablePart r:id="rId59"/>
   </tableParts>
 </worksheet>
 </file>
--- a/kws/kws-priradene.xlsx
+++ b/kws/kws-priradene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matusrebros/super/kws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF105C70-FB2F-8441-B10A-0145F2CC16A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C23F84-5A65-3144-B213-17B40412A261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1460" windowWidth="28040" windowHeight="17440" xr2:uid="{24AB14E7-762D-AE4E-B4A7-B13D6B471532}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="369">
   <si>
     <t>#</t>
   </si>
@@ -1129,6 +1129,9 @@
   </si>
   <si>
     <t>webová analytika</t>
+  </si>
+  <si>
+    <t>pridať do sekcie TVORBA WEB STRÁNOK</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1240,127 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="215">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2614,202 +2737,202 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E1CF4BF-75F8-9140-B94C-5EB0541D09F5}" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0" dataDxfId="199">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E1CF4BF-75F8-9140-B94C-5EB0541D09F5}" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0" dataDxfId="214">
   <autoFilter ref="A2:F14" xr:uid="{74E50701-1A0A-894E-9143-9FEFF3FB7E7D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7E2F558B-F58E-0C4D-BB56-5AA65B95B592}" name="#"/>
     <tableColumn id="2" xr3:uid="{4627E11D-6659-0946-969B-79A6AEF6B3C9}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{C23F3803-D413-0B4B-B9FA-FE2BB29F06E6}" name="VOLUME" dataDxfId="198"/>
-    <tableColumn id="4" xr3:uid="{B58DF622-F89E-8941-B0FC-583C368F9B99}" name="CPC" dataDxfId="197"/>
-    <tableColumn id="5" xr3:uid="{886F3236-A825-CE4D-9DDB-013936859674}" name="PD" dataDxfId="196"/>
-    <tableColumn id="6" xr3:uid="{5198577F-51C6-9246-8B59-7EF18AE961D7}" name="SD" dataDxfId="195"/>
+    <tableColumn id="3" xr3:uid="{C23F3803-D413-0B4B-B9FA-FE2BB29F06E6}" name="VOLUME" dataDxfId="213"/>
+    <tableColumn id="4" xr3:uid="{B58DF622-F89E-8941-B0FC-583C368F9B99}" name="CPC" dataDxfId="212"/>
+    <tableColumn id="5" xr3:uid="{886F3236-A825-CE4D-9DDB-013936859674}" name="PD" dataDxfId="211"/>
+    <tableColumn id="6" xr3:uid="{5198577F-51C6-9246-8B59-7EF18AE961D7}" name="SD" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E7A93C3E-0A6E-9547-B6AC-70F5053DA86D}" name="Table10" displayName="Table10" ref="A99:F103" totalsRowShown="0" headerRowDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E7A93C3E-0A6E-9547-B6AC-70F5053DA86D}" name="Table10" displayName="Table10" ref="A99:F103" totalsRowShown="0" headerRowDxfId="178">
   <autoFilter ref="A99:F103" xr:uid="{E7E42209-AA07-9B40-B6FB-8962E55B2429}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E61304BA-FD70-7B4A-8F8F-2353A025E3E0}" name="#"/>
-    <tableColumn id="2" xr3:uid="{26DE8984-F2E3-2D45-A01C-DC4E4BFCE41E}" name="KW" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{F032AA5E-BBEA-0F4D-A120-66BB691369E0}" name="VOLUME" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{1F751F65-1511-014F-93F8-FAF144C07979}" name="CPC" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{74A13CC7-DD15-F54C-B7A4-E7AB3E4E9E2D}" name="PD" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{A6B5B915-D592-D44D-A3F7-93AF5CF101F3}" name="SD" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{26DE8984-F2E3-2D45-A01C-DC4E4BFCE41E}" name="KW" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{F032AA5E-BBEA-0F4D-A120-66BB691369E0}" name="VOLUME" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{1F751F65-1511-014F-93F8-FAF144C07979}" name="CPC" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{74A13CC7-DD15-F54C-B7A4-E7AB3E4E9E2D}" name="PD" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{A6B5B915-D592-D44D-A3F7-93AF5CF101F3}" name="SD" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8E8E6AE0-16A0-4D47-901E-E2E6BFD9409A}" name="Table11" displayName="Table11" ref="A107:F109" totalsRowShown="0" headerRowDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8E8E6AE0-16A0-4D47-901E-E2E6BFD9409A}" name="Table11" displayName="Table11" ref="A107:F109" totalsRowShown="0" headerRowDxfId="177">
   <autoFilter ref="A107:F109" xr:uid="{4305766E-D3AF-6441-ABB3-69758F113174}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A6788509-2311-1146-8FFA-EF930A8EA465}" name="#"/>
-    <tableColumn id="2" xr3:uid="{ED20E06E-FCF5-644F-90BB-58B5133565AF}" name="KW" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{18E36775-FB96-CA49-9F91-2DA953D7DB35}" name="VOLUME" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{6CCE875C-4F2A-8A4B-9BF7-EDECB81E9155}" name="CPC" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{CDCADAC3-AE5F-7C42-8849-43DF27FEA349}" name="PD" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{E76A6225-F40D-5E45-A05D-30DF3A9ADF7D}" name="SD" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{ED20E06E-FCF5-644F-90BB-58B5133565AF}" name="KW" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{18E36775-FB96-CA49-9F91-2DA953D7DB35}" name="VOLUME" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{6CCE875C-4F2A-8A4B-9BF7-EDECB81E9155}" name="CPC" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{CDCADAC3-AE5F-7C42-8849-43DF27FEA349}" name="PD" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{E76A6225-F40D-5E45-A05D-30DF3A9ADF7D}" name="SD" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1CAF062D-CFD8-C54C-ADD5-C31993589BBC}" name="Table12" displayName="Table12" ref="A112:F114" totalsRowShown="0" headerRowDxfId="161">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1CAF062D-CFD8-C54C-ADD5-C31993589BBC}" name="Table12" displayName="Table12" ref="A112:F114" totalsRowShown="0" headerRowDxfId="176">
   <autoFilter ref="A112:F114" xr:uid="{002C4BF5-9DCC-4542-B22C-088766D48D54}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{14DFE193-5DF2-7B46-8D37-E4B852686543}" name="#"/>
-    <tableColumn id="2" xr3:uid="{22120B33-C216-C849-8733-271D62D42637}" name="KW" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{28D313CE-9A65-9C4C-B37F-26FD2CB8F220}" name="VOLUME" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{9FD75F01-6BEE-6740-8E60-27D73CC2C6C6}" name="CPC" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{D3C31E8C-6969-9D48-877D-66630FE990C7}" name="PD" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{485A3899-A8D1-9C47-AED5-54F7AB5FB17D}" name="SD" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{22120B33-C216-C849-8733-271D62D42637}" name="KW" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{28D313CE-9A65-9C4C-B37F-26FD2CB8F220}" name="VOLUME" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{9FD75F01-6BEE-6740-8E60-27D73CC2C6C6}" name="CPC" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{D3C31E8C-6969-9D48-877D-66630FE990C7}" name="PD" dataDxfId="106"/>
+    <tableColumn id="6" xr3:uid="{485A3899-A8D1-9C47-AED5-54F7AB5FB17D}" name="SD" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3288C749-29DB-C248-A15B-C2D6C80E411A}" name="Table13" displayName="Table13" ref="A118:F119" totalsRowShown="0" headerRowDxfId="160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3288C749-29DB-C248-A15B-C2D6C80E411A}" name="Table13" displayName="Table13" ref="A118:F119" totalsRowShown="0" headerRowDxfId="175">
   <autoFilter ref="A118:F119" xr:uid="{68793F86-3D24-0F4A-990D-C7CF9E15EEEE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C083CA5A-CED1-2544-A924-BF8EEF828141}" name="#"/>
-    <tableColumn id="2" xr3:uid="{DDDCE6E4-079D-8F44-BEDC-2D8E1D809960}" name="KW" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{DF554EFA-9A03-8044-8EA2-F767F7889644}" name="VOLUME" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{41663514-B724-344B-B562-C6FC56BB1299}" name="CPC" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{EC53C1B7-E67E-1B41-AF37-C8CD92815570}" name="PD" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{C6B41853-1E9B-8447-B340-4AC432D537BB}" name="SD" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{DDDCE6E4-079D-8F44-BEDC-2D8E1D809960}" name="KW" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{DF554EFA-9A03-8044-8EA2-F767F7889644}" name="VOLUME" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{41663514-B724-344B-B562-C6FC56BB1299}" name="CPC" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{EC53C1B7-E67E-1B41-AF37-C8CD92815570}" name="PD" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{C6B41853-1E9B-8447-B340-4AC432D537BB}" name="SD" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{EB25DF35-48A6-8E41-AF07-9C9F53F94A24}" name="Table14" displayName="Table14" ref="A124:F127" totalsRowShown="0" headerRowDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{EB25DF35-48A6-8E41-AF07-9C9F53F94A24}" name="Table14" displayName="Table14" ref="A124:F127" totalsRowShown="0" headerRowDxfId="174">
   <autoFilter ref="A124:F127" xr:uid="{07B063AC-5CC6-6F49-98B4-7F9FF1957CE3}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3BA58D70-94CD-EF48-B010-983DDE9975B7}" name="#"/>
-    <tableColumn id="2" xr3:uid="{FC742E95-A6F7-D44B-8AAC-836BB2862645}" name="KW" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{2A66C610-D5BD-994A-9D38-C95667CC3C2F}" name="VOLUME" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{6473FBC7-D46E-B941-80F5-CACAB22AAF43}" name="CPC" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{73211850-4DBC-6343-A290-B22C77613CB4}" name="PD" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{895FF0DC-6096-7F48-B707-30E1C37B975B}" name="SD" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{FC742E95-A6F7-D44B-8AAC-836BB2862645}" name="KW" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{2A66C610-D5BD-994A-9D38-C95667CC3C2F}" name="VOLUME" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{6473FBC7-D46E-B941-80F5-CACAB22AAF43}" name="CPC" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{73211850-4DBC-6343-A290-B22C77613CB4}" name="PD" dataDxfId="116"/>
+    <tableColumn id="6" xr3:uid="{895FF0DC-6096-7F48-B707-30E1C37B975B}" name="SD" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0E301EB3-0244-BD4E-BE42-7E383DC067A8}" name="Table15" displayName="Table15" ref="A130:F131" totalsRowShown="0" headerRowDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{0E301EB3-0244-BD4E-BE42-7E383DC067A8}" name="Table15" displayName="Table15" ref="A130:F131" totalsRowShown="0" headerRowDxfId="173">
   <autoFilter ref="A130:F131" xr:uid="{7305680E-492B-6D41-8A11-2ADF96E886A6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2B20E6D4-326E-7B47-88A6-D7848863753C}" name="#"/>
-    <tableColumn id="2" xr3:uid="{177402D9-0A07-F84F-81D9-540BC822D7F5}" name="KW" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{AE3795E6-7C5C-FC44-92CB-D77E97FE8F39}" name="VOLUME" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{DA1180F6-110E-8043-BE9C-9278D70F8A5F}" name="CPC" dataDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{834E0BB8-A662-2340-8C26-906F358988FD}" name="PD" dataDxfId="106"/>
-    <tableColumn id="6" xr3:uid="{3EEF1959-AB35-2C49-B514-927AA19198F9}" name="SD" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{177402D9-0A07-F84F-81D9-540BC822D7F5}" name="KW" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{AE3795E6-7C5C-FC44-92CB-D77E97FE8F39}" name="VOLUME" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{DA1180F6-110E-8043-BE9C-9278D70F8A5F}" name="CPC" dataDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{834E0BB8-A662-2340-8C26-906F358988FD}" name="PD" dataDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{3EEF1959-AB35-2C49-B514-927AA19198F9}" name="SD" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F69D9181-DC29-FC42-A5AD-77A71835AC1B}" name="Table16" displayName="Table16" ref="A134:F135" totalsRowShown="0" headerRowDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F69D9181-DC29-FC42-A5AD-77A71835AC1B}" name="Table16" displayName="Table16" ref="A134:F135" totalsRowShown="0" headerRowDxfId="172">
   <autoFilter ref="A134:F135" xr:uid="{A62F0686-D32F-5A4D-868A-DA1259E3D6B5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F4FEA10C-19CD-BC4A-A256-125D4FDAF276}" name="#"/>
-    <tableColumn id="2" xr3:uid="{CF5ABF10-84A7-8A4B-877E-F37F73BAD95A}" name="KW" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{CFCEB75F-27D4-A241-B5F5-B1ABD9E41043}" name="VOLUME" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{516B962D-2935-9844-B203-5E5153227BE0}" name="CPC" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{2E9BE74C-9971-9F44-A8C7-A3D8745FF59E}" name="PD" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{E270E56B-2248-6E45-9837-92FA5FE80197}" name="SD" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{CF5ABF10-84A7-8A4B-877E-F37F73BAD95A}" name="KW" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{CFCEB75F-27D4-A241-B5F5-B1ABD9E41043}" name="VOLUME" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{516B962D-2935-9844-B203-5E5153227BE0}" name="CPC" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{2E9BE74C-9971-9F44-A8C7-A3D8745FF59E}" name="PD" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{E270E56B-2248-6E45-9837-92FA5FE80197}" name="SD" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{CCED5B12-FED4-604A-B637-36938155EAB1}" name="Table17" displayName="Table17" ref="A138:F139" totalsRowShown="0" headerRowDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{CCED5B12-FED4-604A-B637-36938155EAB1}" name="Table17" displayName="Table17" ref="A138:F139" totalsRowShown="0" headerRowDxfId="171">
   <autoFilter ref="A138:F139" xr:uid="{7EE444A1-7AE5-A54E-8997-15CC36FA126B}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4CF1A1F9-8026-0543-82EF-3F3CA64F1353}" name="#"/>
-    <tableColumn id="2" xr3:uid="{7B2FBCF4-8EC0-0F46-A8DE-28A6BCC1FE19}" name="KW" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{88F7B4C4-6673-2243-A584-8D737DFC48C6}" name="VOLUME" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{89CC3E3A-4522-FB48-88DA-FB8C58CA5E3F}" name="CPC" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{0599F371-B9EB-784E-B7DB-94D246E76605}" name="PD" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{DC38DE6B-9F84-724B-85A4-B7FF531168EF}" name="SD" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{7B2FBCF4-8EC0-0F46-A8DE-28A6BCC1FE19}" name="KW" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{88F7B4C4-6673-2243-A584-8D737DFC48C6}" name="VOLUME" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{89CC3E3A-4522-FB48-88DA-FB8C58CA5E3F}" name="CPC" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{0599F371-B9EB-784E-B7DB-94D246E76605}" name="PD" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{DC38DE6B-9F84-724B-85A4-B7FF531168EF}" name="SD" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E4880F1C-B94D-D74B-9915-22097FC6285F}" name="Table18" displayName="Table18" ref="A143:F144" totalsRowShown="0" headerRowDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E4880F1C-B94D-D74B-9915-22097FC6285F}" name="Table18" displayName="Table18" ref="A143:F144" totalsRowShown="0" headerRowDxfId="170">
   <autoFilter ref="A143:F144" xr:uid="{E6DE82C3-2D0B-4F4D-8F39-D1DA689D19CB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B662F13E-B492-214B-8931-01BDCEDCC41E}" name="#"/>
-    <tableColumn id="2" xr3:uid="{57C44F1E-A8BB-3F4E-8DAE-52F8B56261D9}" name="KW" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{B091047A-9F2F-3541-BADA-AD774EBE5331}" name="VOLUME" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{12FA177C-FBC7-C640-8B48-C4B014FB6A20}" name="CPC" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{7411FCA2-7CE8-C140-947E-6B7E54883872}" name="PD" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{DD369330-2665-6340-9421-371896A214BF}" name="SD" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{57C44F1E-A8BB-3F4E-8DAE-52F8B56261D9}" name="KW" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{B091047A-9F2F-3541-BADA-AD774EBE5331}" name="VOLUME" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{12FA177C-FBC7-C640-8B48-C4B014FB6A20}" name="CPC" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{7411FCA2-7CE8-C140-947E-6B7E54883872}" name="PD" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{DD369330-2665-6340-9421-371896A214BF}" name="SD" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4C564B1B-0DD7-D347-A188-900BB14F90A1}" name="Table19" displayName="Table19" ref="A147:F148" totalsRowShown="0" headerRowDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4C564B1B-0DD7-D347-A188-900BB14F90A1}" name="Table19" displayName="Table19" ref="A147:F148" totalsRowShown="0" headerRowDxfId="169">
   <autoFilter ref="A147:F148" xr:uid="{82E2DF75-CE68-2049-A332-A8A898978DEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2EE0FD00-9808-A048-A1D7-26DF234957CF}" name="#"/>
-    <tableColumn id="2" xr3:uid="{01B5B0A8-4981-7549-9823-F4C5C67D5D1D}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{58CA2B5C-D66A-4A48-86CB-8497241B2329}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{99EB0716-F95B-924D-B3F3-76D44C0A85AD}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{76343CE1-EE62-1C41-A722-91AAA774A974}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{BB2E850E-B030-5E4E-BE4C-F8B8591EBC6F}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{01B5B0A8-4981-7549-9823-F4C5C67D5D1D}" name="KW" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{58CA2B5C-D66A-4A48-86CB-8497241B2329}" name="VOLUME" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{99EB0716-F95B-924D-B3F3-76D44C0A85AD}" name="CPC" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{76343CE1-EE62-1C41-A722-91AAA774A974}" name="PD" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{BB2E850E-B030-5E4E-BE4C-F8B8591EBC6F}" name="SD" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D48F073F-2499-0248-B6F9-6DCD366691D7}" name="Table2" displayName="Table2" ref="A20:F28" totalsRowShown="0" headerRowDxfId="193" dataDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D48F073F-2499-0248-B6F9-6DCD366691D7}" name="Table2" displayName="Table2" ref="A20:F28" totalsRowShown="0" headerRowDxfId="208" dataDxfId="209">
   <autoFilter ref="A20:F28" xr:uid="{2A107C8F-0360-1140-9931-4B2DFB244DB4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{132A3B5B-67A2-6F4C-9B7C-68E1557A365C}" name="#"/>
-    <tableColumn id="2" xr3:uid="{F9827C56-5234-A445-8857-7911661EBCA4}" name="KW" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{EEC35316-54F0-924C-882C-651D0C826C70}" name="VOLUME" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{F6EA3307-AF1D-754B-85D2-A00BB081CB66}" name="CPC" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{25251231-2500-B24D-9F4D-92B0EDCB914B}" name="PD" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{A081A408-F986-3A44-81B9-B87E91DB643C}" name="SD" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{F9827C56-5234-A445-8857-7911661EBCA4}" name="KW" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{EEC35316-54F0-924C-882C-651D0C826C70}" name="VOLUME" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{F6EA3307-AF1D-754B-85D2-A00BB081CB66}" name="CPC" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{25251231-2500-B24D-9F4D-92B0EDCB914B}" name="PD" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{A081A408-F986-3A44-81B9-B87E91DB643C}" name="SD" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{AE8F46DB-ECF7-1546-80E0-03AB32B24A7F}" name="Table20" displayName="Table20" ref="A152:F153" totalsRowShown="0" headerRowDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{AE8F46DB-ECF7-1546-80E0-03AB32B24A7F}" name="Table20" displayName="Table20" ref="A152:F153" totalsRowShown="0" headerRowDxfId="168">
   <autoFilter ref="A152:F153" xr:uid="{F2B18E16-58EF-5D41-8091-EF95A67FD6D4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F0A66B5C-E51A-064B-8CD8-7953EF424F1D}" name="#"/>
-    <tableColumn id="2" xr3:uid="{67E0028D-9048-A946-85E9-9C0E237208C7}" name="KW" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{626E579B-E951-9646-8C5F-693F94A026AF}" name="VOLUME" dataDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{C79CF989-127A-CE4A-A7A5-FD447EECFD8F}" name="CPC" dataDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{B3D4E7E5-3492-4247-8FB1-608779BBE7A5}" name="PD" dataDxfId="111"/>
-    <tableColumn id="6" xr3:uid="{1140D62C-01F3-1F4A-84BA-7E074556E233}" name="SD" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{67E0028D-9048-A946-85E9-9C0E237208C7}" name="KW" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{626E579B-E951-9646-8C5F-693F94A026AF}" name="VOLUME" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{C79CF989-127A-CE4A-A7A5-FD447EECFD8F}" name="CPC" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{B3D4E7E5-3492-4247-8FB1-608779BBE7A5}" name="PD" dataDxfId="126"/>
+    <tableColumn id="6" xr3:uid="{1140D62C-01F3-1F4A-84BA-7E074556E233}" name="SD" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{72195EDD-4C36-8D43-A297-8A3055ABC67C}" name="Table21" displayName="Table21" ref="A157:F160" totalsRowShown="0" headerRowDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{72195EDD-4C36-8D43-A297-8A3055ABC67C}" name="Table21" displayName="Table21" ref="A157:F160" totalsRowShown="0" headerRowDxfId="167">
   <autoFilter ref="A157:F160" xr:uid="{0F1F4D22-D736-AE47-A5E1-B5F142D02E52}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{525EECB4-0784-8D48-B16D-C694E9D9F3B8}" name="#"/>
@@ -2824,30 +2947,30 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{153F6715-F770-8740-94D2-11D1476495FA}" name="Table22" displayName="Table22" ref="A164:F166" totalsRowShown="0" headerRowDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{153F6715-F770-8740-94D2-11D1476495FA}" name="Table22" displayName="Table22" ref="A164:F166" totalsRowShown="0" headerRowDxfId="166">
   <autoFilter ref="A164:F166" xr:uid="{7B3DE3F3-BAF0-BF44-A7DA-9DFA68E3DC83}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D7DE3DBC-AAC4-484C-B044-C601FDAF02DC}" name="#"/>
-    <tableColumn id="2" xr3:uid="{C9A6B1AF-95A9-3645-91A9-222B0825EFB1}" name="KW" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{FB13CD5A-7791-E94E-BF99-B03DB836AA57}" name="VOLUME" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{7E5AC52B-EBF1-4E45-B5A4-45743185D627}" name="CPC" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{FA5B254D-C1A4-0740-928B-17E5D705D531}" name="PD" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{47C8AA8C-38E2-BB44-9527-FF94F70F2510}" name="SD" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{C9A6B1AF-95A9-3645-91A9-222B0825EFB1}" name="KW" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{FB13CD5A-7791-E94E-BF99-B03DB836AA57}" name="VOLUME" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{7E5AC52B-EBF1-4E45-B5A4-45743185D627}" name="CPC" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{FA5B254D-C1A4-0740-928B-17E5D705D531}" name="PD" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{47C8AA8C-38E2-BB44-9527-FF94F70F2510}" name="SD" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0782B336-FE7D-CC46-A30B-0629DECFFF6A}" name="Table23" displayName="Table23" ref="A169:F170" totalsRowShown="0" headerRowDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0782B336-FE7D-CC46-A30B-0629DECFFF6A}" name="Table23" displayName="Table23" ref="A169:F170" totalsRowShown="0" headerRowDxfId="165">
   <autoFilter ref="A169:F170" xr:uid="{97A80D7C-2CA8-8948-A0E2-772A6E732068}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2DE3AF2C-F140-7D4F-8B9F-EFA7A54EC4D0}" name="#"/>
-    <tableColumn id="2" xr3:uid="{46B29A82-2A3B-C04C-90EC-B4C152D77495}" name="KW" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{CD259F80-07DF-7F4A-9F6D-7347B1ABA398}" name="VOLUME" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{4D39A03D-9DE9-F343-AEFA-C8FC45D66B39}" name="CPC" dataDxfId="117"/>
-    <tableColumn id="5" xr3:uid="{906F2C6B-7E86-8E40-B607-0C6AAE941A07}" name="PD" dataDxfId="116"/>
-    <tableColumn id="6" xr3:uid="{0E1D0FA5-03CD-B04A-B657-31212FE5F18E}" name="SD" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{46B29A82-2A3B-C04C-90EC-B4C152D77495}" name="KW" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{CD259F80-07DF-7F4A-9F6D-7347B1ABA398}" name="VOLUME" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{4D39A03D-9DE9-F343-AEFA-C8FC45D66B39}" name="CPC" dataDxfId="132"/>
+    <tableColumn id="5" xr3:uid="{906F2C6B-7E86-8E40-B607-0C6AAE941A07}" name="PD" dataDxfId="131"/>
+    <tableColumn id="6" xr3:uid="{0E1D0FA5-03CD-B04A-B657-31212FE5F18E}" name="SD" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2873,11 +2996,11 @@
   <autoFilter ref="A180:F181" xr:uid="{8D239E99-0A9B-7940-BECF-DD4766F3562C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{679680AE-6A12-264D-93DA-A3C62351AF2E}" name="#"/>
-    <tableColumn id="2" xr3:uid="{4A761668-B2DA-4A48-80D3-9B51C3DB4E78}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{704ECB16-EE1E-8741-98CB-56DB991AEDF9}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{CB97B695-C88B-A643-9C20-E7A08C061046}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{1AC47DCF-2E46-E246-B5F6-8E832020B408}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{DEE67139-1D7E-4D4D-A805-7EE9A4ECCC68}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{4A761668-B2DA-4A48-80D3-9B51C3DB4E78}" name="KW" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{704ECB16-EE1E-8741-98CB-56DB991AEDF9}" name="VOLUME" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{CB97B695-C88B-A643-9C20-E7A08C061046}" name="CPC" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1AC47DCF-2E46-E246-B5F6-8E832020B408}" name="PD" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{DEE67139-1D7E-4D4D-A805-7EE9A4ECCC68}" name="SD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2888,11 +3011,11 @@
   <autoFilter ref="A184:F185" xr:uid="{B497B441-E5E6-EB44-8894-1324DA34F533}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D72FC37C-2105-8F4E-98EA-670BBF29CD17}" name="#"/>
-    <tableColumn id="2" xr3:uid="{5E44F6B5-6DF9-5146-AFAA-9C528D4D818D}" name="KW" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C2FD83C0-C1F3-2949-98F0-E758CDB8BCBA}" name="VOLUME" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{7DA14CC2-991A-C145-B9EB-20DCC2423422}" name="CPC" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{650F3EB6-3A8C-ED47-BEF0-19DC9EE4C005}" name="PD" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{D7D380D4-CF29-C844-B40C-D5184EB459EF}" name="SD" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5E44F6B5-6DF9-5146-AFAA-9C528D4D818D}" name="KW" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{C2FD83C0-C1F3-2949-98F0-E758CDB8BCBA}" name="VOLUME" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{7DA14CC2-991A-C145-B9EB-20DCC2423422}" name="CPC" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{650F3EB6-3A8C-ED47-BEF0-19DC9EE4C005}" name="PD" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{D7D380D4-CF29-C844-B40C-D5184EB459EF}" name="SD" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2933,26 +3056,26 @@
   <autoFilter ref="A202:F204" xr:uid="{79FE5471-718D-D84D-B958-0F7ED66B7A62}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FDF0208A-0A77-3C40-AF89-BDF5B12E55A8}" name="#"/>
-    <tableColumn id="2" xr3:uid="{E62E53B2-C6FA-F748-B88D-0682053BE258}" name="KW" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{C883B0A8-B5F8-4E40-B0F5-0561B644F681}" name="VOLUME" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{0F94DD56-CE6E-4040-BD92-64EC29767E07}" name="CPC" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{9E354F6A-FF22-3342-851E-32F99445E2BA}" name="PD" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{511904F2-7755-F943-8B73-B5D8997F0DF4}" name="SD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{E62E53B2-C6FA-F748-B88D-0682053BE258}" name="KW" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{C883B0A8-B5F8-4E40-B0F5-0561B644F681}" name="VOLUME" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{0F94DD56-CE6E-4040-BD92-64EC29767E07}" name="CPC" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{9E354F6A-FF22-3342-851E-32F99445E2BA}" name="PD" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{511904F2-7755-F943-8B73-B5D8997F0DF4}" name="SD" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D27A6161-190E-6944-904F-43BED03777DD}" name="Table3" displayName="Table3" ref="A31:F39" totalsRowShown="0" headerRowDxfId="187" dataDxfId="188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D27A6161-190E-6944-904F-43BED03777DD}" name="Table3" displayName="Table3" ref="A31:F39" totalsRowShown="0" headerRowDxfId="202" dataDxfId="203">
   <autoFilter ref="A31:F39" xr:uid="{BDC9A2E4-574E-EC49-8529-7DB31751E3EA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{09EE696F-DB41-2F48-A130-CE27A90F559F}" name="#"/>
     <tableColumn id="2" xr3:uid="{269AD9DE-D8B1-8045-8983-168EA7049F62}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{F7C59FC9-DF64-FD40-8D2F-EF32939002B1}" name="VOLUME" dataDxfId="192"/>
-    <tableColumn id="4" xr3:uid="{7D2664FE-FC8A-9748-81FA-CCE7A833F5C7}" name="CPC" dataDxfId="191"/>
-    <tableColumn id="5" xr3:uid="{E5657E44-87CE-4E4C-8086-7953652A722B}" name="PD" dataDxfId="190"/>
-    <tableColumn id="6" xr3:uid="{661FCF7E-DA3E-514D-8DC7-7D06C45AACFC}" name="SD" dataDxfId="189"/>
+    <tableColumn id="3" xr3:uid="{F7C59FC9-DF64-FD40-8D2F-EF32939002B1}" name="VOLUME" dataDxfId="207"/>
+    <tableColumn id="4" xr3:uid="{7D2664FE-FC8A-9748-81FA-CCE7A833F5C7}" name="CPC" dataDxfId="206"/>
+    <tableColumn id="5" xr3:uid="{E5657E44-87CE-4E4C-8086-7953652A722B}" name="PD" dataDxfId="205"/>
+    <tableColumn id="6" xr3:uid="{661FCF7E-DA3E-514D-8DC7-7D06C45AACFC}" name="SD" dataDxfId="204"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3023,11 +3146,11 @@
   <autoFilter ref="A232:F233" xr:uid="{798DAC0A-477C-AE4E-A31E-727E21B359A3}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1A68CF93-2105-E843-9086-FF696EBEF9EB}" name="#"/>
-    <tableColumn id="2" xr3:uid="{10A455A8-44CC-1D40-B80E-88EA3F8674CD}" name="KW" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{ED2B36EA-BD98-2E4C-81A5-4FCDFFE06961}" name="VOLUME" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{A1D86550-0EC1-A348-A6A7-DE63593FD1DA}" name="CPC" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{1AB74525-825E-2747-A048-018E76DADD88}" name="PD" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{BC7C9624-2B36-5546-9348-F627A4622F57}" name="SD" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{10A455A8-44CC-1D40-B80E-88EA3F8674CD}" name="KW" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{ED2B36EA-BD98-2E4C-81A5-4FCDFFE06961}" name="VOLUME" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{A1D86550-0EC1-A348-A6A7-DE63593FD1DA}" name="CPC" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{1AB74525-825E-2747-A048-018E76DADD88}" name="PD" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{BC7C9624-2B36-5546-9348-F627A4622F57}" name="SD" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3038,11 +3161,11 @@
   <autoFilter ref="A236:F237" xr:uid="{4A881D36-4749-F74C-B36A-481354247021}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FBAC947B-E7DF-9E45-B1A9-997D3AC3DDEB}" name="#"/>
-    <tableColumn id="2" xr3:uid="{8DB65BBD-94EE-B44E-938D-EB91731083D6}" name="KW" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{2571BFAF-55C8-8340-BFB8-04046ADBD13D}" name="VOLUME" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{2910A3E4-1B94-3A42-95DD-24B163F5F4C4}" name="CPC" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{278A0A9D-2373-D747-8565-D4AAB9FFB722}" name="PD" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{C9E1AE8B-F6FC-E94C-AEB4-B790F7139A14}" name="SD" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{8DB65BBD-94EE-B44E-938D-EB91731083D6}" name="KW" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{2571BFAF-55C8-8340-BFB8-04046ADBD13D}" name="VOLUME" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{2910A3E4-1B94-3A42-95DD-24B163F5F4C4}" name="CPC" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{278A0A9D-2373-D747-8565-D4AAB9FFB722}" name="PD" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{C9E1AE8B-F6FC-E94C-AEB4-B790F7139A14}" name="SD" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3053,11 +3176,11 @@
   <autoFilter ref="A241:F242" xr:uid="{C6A34C7A-FF1B-564F-9487-1F6564C55FB0}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{21007F4A-8E39-0A45-A357-7C287AB1B6A8}" name="#"/>
-    <tableColumn id="2" xr3:uid="{522AF2E7-8DD6-9A40-9946-E337745086F9}" name="KW" dataDxfId="129"/>
-    <tableColumn id="3" xr3:uid="{8A5E3EC2-0B37-B84D-85B5-8C66AED77238}" name="VOLUME" dataDxfId="128"/>
-    <tableColumn id="4" xr3:uid="{8DEF61B7-2DA8-1043-9E62-21687C2B9C0E}" name="CPC" dataDxfId="127"/>
-    <tableColumn id="5" xr3:uid="{154F65F6-6C82-6D43-B15B-1140E4CA3B47}" name="PD" dataDxfId="126"/>
-    <tableColumn id="6" xr3:uid="{7D2BA681-048E-FC4B-9F73-130EF4415D12}" name="SD" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{522AF2E7-8DD6-9A40-9946-E337745086F9}" name="KW" dataDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{8A5E3EC2-0B37-B84D-85B5-8C66AED77238}" name="VOLUME" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{8DEF61B7-2DA8-1043-9E62-21687C2B9C0E}" name="CPC" dataDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{154F65F6-6C82-6D43-B15B-1140E4CA3B47}" name="PD" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{7D2BA681-048E-FC4B-9F73-130EF4415D12}" name="SD" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3068,11 +3191,11 @@
   <autoFilter ref="A313:F315" xr:uid="{80917D28-E05D-744F-9B91-CFD6B0CB3F86}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3673096A-10E6-D84E-8AA4-8A832614FE9C}" name="#"/>
-    <tableColumn id="2" xr3:uid="{97C26049-DE12-1347-B001-DDA8A703812A}" name="KW" dataDxfId="149"/>
-    <tableColumn id="3" xr3:uid="{A1221B1E-A972-3143-9AF5-035B25146878}" name="VOLUME" dataDxfId="148"/>
-    <tableColumn id="4" xr3:uid="{886918F8-80E2-3143-81B7-26673EEE2732}" name="CPC" dataDxfId="147"/>
-    <tableColumn id="5" xr3:uid="{7138E072-4D42-AD49-9575-97359C1D6762}" name="PD" dataDxfId="146"/>
-    <tableColumn id="6" xr3:uid="{67A37A69-D6B6-FE45-B9BC-AE71C5D4192D}" name="SD" dataDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{97C26049-DE12-1347-B001-DDA8A703812A}" name="KW" dataDxfId="164"/>
+    <tableColumn id="3" xr3:uid="{A1221B1E-A972-3143-9AF5-035B25146878}" name="VOLUME" dataDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{886918F8-80E2-3143-81B7-26673EEE2732}" name="CPC" dataDxfId="162"/>
+    <tableColumn id="5" xr3:uid="{7138E072-4D42-AD49-9575-97359C1D6762}" name="PD" dataDxfId="161"/>
+    <tableColumn id="6" xr3:uid="{67A37A69-D6B6-FE45-B9BC-AE71C5D4192D}" name="SD" dataDxfId="160"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3109,15 +3232,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6CD6A3DA-EBB3-4B49-A333-F222C71C3FF4}" name="Table4" displayName="Table4" ref="A43:F50" totalsRowShown="0" headerRowDxfId="181" dataDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6CD6A3DA-EBB3-4B49-A333-F222C71C3FF4}" name="Table4" displayName="Table4" ref="A43:F50" totalsRowShown="0" headerRowDxfId="196" dataDxfId="197">
   <autoFilter ref="A43:F50" xr:uid="{E1F4886C-A78A-534F-9D7B-151A99238035}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5C5A6511-87CA-6640-8AF2-E538935E19D4}" name="#"/>
     <tableColumn id="2" xr3:uid="{AF38B8D5-D486-D44B-97B3-C65E46F807D2}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{E06AF93F-99E3-8D4A-A8F6-8379012349BD}" name="VOLUME" dataDxfId="186"/>
-    <tableColumn id="4" xr3:uid="{B31113DE-7E56-DB4E-99BE-2FC580590D64}" name="CPC" dataDxfId="185"/>
-    <tableColumn id="5" xr3:uid="{3909BDF8-8D1B-C040-BEAA-7F91A66F34F4}" name="PD" dataDxfId="184"/>
-    <tableColumn id="6" xr3:uid="{F63EF63C-5693-7F40-A3E6-3D3B30C29EBE}" name="SD" dataDxfId="183"/>
+    <tableColumn id="3" xr3:uid="{E06AF93F-99E3-8D4A-A8F6-8379012349BD}" name="VOLUME" dataDxfId="201"/>
+    <tableColumn id="4" xr3:uid="{B31113DE-7E56-DB4E-99BE-2FC580590D64}" name="CPC" dataDxfId="200"/>
+    <tableColumn id="5" xr3:uid="{3909BDF8-8D1B-C040-BEAA-7F91A66F34F4}" name="PD" dataDxfId="199"/>
+    <tableColumn id="6" xr3:uid="{F63EF63C-5693-7F40-A3E6-3D3B30C29EBE}" name="SD" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3128,11 +3251,11 @@
   <autoFilter ref="A297:F298" xr:uid="{8415CD92-C684-BD4D-BF4A-B93A3D7447AF}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AA071852-22B1-B54C-B1F0-945B2C6D3A61}" name="#"/>
-    <tableColumn id="2" xr3:uid="{29452E80-0BC1-8346-8BE0-61AA79C4B88A}" name="KW" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{52CB9019-B229-EF45-BC98-375AAEC2014A}" name="VOLUME" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{93812977-0181-0244-A57F-EFC6BC94F412}" name="CPC" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{5C50DD7D-751A-9C4B-A697-2B64A55B5710}" name="PD" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{435C4AFB-34B3-7E49-8A55-5C2678C923C6}" name="SD" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{29452E80-0BC1-8346-8BE0-61AA79C4B88A}" name="KW" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{52CB9019-B229-EF45-BC98-375AAEC2014A}" name="VOLUME" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{93812977-0181-0244-A57F-EFC6BC94F412}" name="CPC" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{5C50DD7D-751A-9C4B-A697-2B64A55B5710}" name="PD" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{435C4AFB-34B3-7E49-8A55-5C2678C923C6}" name="SD" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3143,11 +3266,11 @@
   <autoFilter ref="A290:F292" xr:uid="{21312958-A3D9-5342-B8CD-58201E27E1AE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4E0F92E9-9CE0-7045-92BD-799AB5D715C8}" name="#"/>
-    <tableColumn id="2" xr3:uid="{311BB895-1944-E846-A97B-47A473B4B203}" name="KW" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{B8A9F904-9AAC-A04B-BF25-0D07CE4DF9B5}" name="VOLUME" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{D53E6C78-6A76-684F-BF86-0E32818949C2}" name="CPC" dataDxfId="132"/>
-    <tableColumn id="5" xr3:uid="{C7450CE3-EFFB-674D-A49F-5BB2801F623A}" name="PD" dataDxfId="131"/>
-    <tableColumn id="6" xr3:uid="{BE80AA8B-61FD-4946-88DC-3AA8B8A5FB25}" name="SD" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{311BB895-1944-E846-A97B-47A473B4B203}" name="KW" dataDxfId="149"/>
+    <tableColumn id="3" xr3:uid="{B8A9F904-9AAC-A04B-BF25-0D07CE4DF9B5}" name="VOLUME" dataDxfId="148"/>
+    <tableColumn id="4" xr3:uid="{D53E6C78-6A76-684F-BF86-0E32818949C2}" name="CPC" dataDxfId="147"/>
+    <tableColumn id="5" xr3:uid="{C7450CE3-EFFB-674D-A49F-5BB2801F623A}" name="PD" dataDxfId="146"/>
+    <tableColumn id="6" xr3:uid="{BE80AA8B-61FD-4946-88DC-3AA8B8A5FB25}" name="SD" dataDxfId="145"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3173,11 +3296,11 @@
   <autoFilter ref="A275:F276" xr:uid="{131C604D-C75F-6543-9E00-321A2AB0FC66}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{47479908-2CEB-F542-9F66-BF791B058A2B}" name="#"/>
-    <tableColumn id="2" xr3:uid="{7458C2FE-6FD9-9E4D-8864-B42898EA1C2D}" name="KW" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{90BD3323-0AA7-7042-A506-170EC757793A}" name="VOLUME" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{1DBE8357-B843-1442-88B7-2E4685D34888}" name="CPC" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{D281F16B-9497-0A42-AFE9-23B682876E91}" name="PD" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{C599C896-EAED-DB4A-8987-F459D26B76EA}" name="SD" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{7458C2FE-6FD9-9E4D-8864-B42898EA1C2D}" name="KW" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{90BD3323-0AA7-7042-A506-170EC757793A}" name="VOLUME" dataDxfId="138"/>
+    <tableColumn id="4" xr3:uid="{1DBE8357-B843-1442-88B7-2E4685D34888}" name="CPC" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{D281F16B-9497-0A42-AFE9-23B682876E91}" name="PD" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{C599C896-EAED-DB4A-8987-F459D26B76EA}" name="SD" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3218,11 +3341,11 @@
   <autoFilter ref="A256:F258" xr:uid="{014F1DDF-A660-394F-A183-1D5B6B900C85}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{53E124B0-4460-2B4D-8288-EC3202FA39CC}" name="#"/>
-    <tableColumn id="2" xr3:uid="{49A67E34-5D4A-A24A-9E49-67B344A4D04A}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{7439E611-39DD-AA4E-B590-466EA417795F}" name="VOLUME"/>
-    <tableColumn id="4" xr3:uid="{3E7DF6F4-1D73-BE4F-8FB1-433F9B3D46C0}" name="CPC"/>
-    <tableColumn id="5" xr3:uid="{D951D2E1-8503-5845-8723-DA1EC1038910}" name="PD"/>
-    <tableColumn id="6" xr3:uid="{66E2FF7E-44F5-8943-9487-8F706A046256}" name="SD"/>
+    <tableColumn id="2" xr3:uid="{49A67E34-5D4A-A24A-9E49-67B344A4D04A}" name="KW" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{7439E611-39DD-AA4E-B590-466EA417795F}" name="VOLUME" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{3E7DF6F4-1D73-BE4F-8FB1-433F9B3D46C0}" name="CPC" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{D951D2E1-8503-5845-8723-DA1EC1038910}" name="PD" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{66E2FF7E-44F5-8943-9487-8F706A046256}" name="SD" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3233,11 +3356,11 @@
   <autoFilter ref="A251:F252" xr:uid="{2605DB0E-565A-764E-B08C-2A49ABFBCFEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{90201E4E-36D1-0B44-BA47-AE1B928B789B}" name="#"/>
-    <tableColumn id="2" xr3:uid="{5CF3D89A-BD7E-DF47-9AE5-54204B9DD67D}" name="KW" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{DB9E152C-CC10-D041-9FB7-DED0E4DD6F2F}" name="VOLUME" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{2129E822-B724-164C-AC71-6DF4EDA43B5E}" name="CPC" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{B487EB01-4CA2-AF46-8ABE-D5082F64B50F}" name="PD" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{615DA23E-F319-C546-BD1A-B626825BF969}" name="SD" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{5CF3D89A-BD7E-DF47-9AE5-54204B9DD67D}" name="KW" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{DB9E152C-CC10-D041-9FB7-DED0E4DD6F2F}" name="VOLUME" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{2129E822-B724-164C-AC71-6DF4EDA43B5E}" name="CPC" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{B487EB01-4CA2-AF46-8ABE-D5082F64B50F}" name="PD" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{615DA23E-F319-C546-BD1A-B626825BF969}" name="SD" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3274,15 +3397,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ABB0287C-E77D-FB4A-B57C-1F015485ED9B}" name="Table5" displayName="Table5" ref="A53:F64" totalsRowShown="0" headerRowDxfId="179" dataDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ABB0287C-E77D-FB4A-B57C-1F015485ED9B}" name="Table5" displayName="Table5" ref="A53:F64" totalsRowShown="0" headerRowDxfId="194" dataDxfId="195">
   <autoFilter ref="A53:F64" xr:uid="{40D9031D-B8B8-2649-9744-638C0B6C1119}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2445B845-753F-434D-994F-9611BF1B1819}" name="#"/>
-    <tableColumn id="2" xr3:uid="{A56AFC12-695B-3D48-AE65-A6A2003BA328}" name="KW" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{3C617472-002E-B649-8B2F-D9EBD0F31B9B}" name="VOLUME" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{7A7CB667-328D-C74B-A491-018716AAB431}" name="CPC" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{72F17B20-E61A-4E46-AFCC-F27E21C38A34}" name="PD" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{39A6763D-2427-4047-8F00-4EE6481B6817}" name="SD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{A56AFC12-695B-3D48-AE65-A6A2003BA328}" name="KW" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{3C617472-002E-B649-8B2F-D9EBD0F31B9B}" name="VOLUME" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{7A7CB667-328D-C74B-A491-018716AAB431}" name="CPC" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{72F17B20-E61A-4E46-AFCC-F27E21C38A34}" name="PD" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{39A6763D-2427-4047-8F00-4EE6481B6817}" name="SD" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3323,11 +3446,11 @@
   <autoFilter ref="A356:F358" xr:uid="{E616B480-8E79-C14D-85B9-E21CB859CEAD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{46FB6008-307F-894B-AF2B-7335CD5EF175}" name="#"/>
-    <tableColumn id="2" xr3:uid="{08D78948-637B-964C-AC65-A587329B555A}" name="KW" dataDxfId="144"/>
-    <tableColumn id="3" xr3:uid="{75E39E01-638B-8B41-B424-FEF42743F882}" name="VOLUME" dataDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{A4499AF4-AC54-CA42-8A44-D3442A1E53CF}" name="CPC" dataDxfId="142"/>
-    <tableColumn id="5" xr3:uid="{C52B8664-213C-B34E-90E5-E0B9C24BDF6F}" name="PD" dataDxfId="141"/>
-    <tableColumn id="6" xr3:uid="{2A86F28E-29C5-B444-BC11-A45C0D4DB6C4}" name="SD" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{08D78948-637B-964C-AC65-A587329B555A}" name="KW" dataDxfId="159"/>
+    <tableColumn id="3" xr3:uid="{75E39E01-638B-8B41-B424-FEF42743F882}" name="VOLUME" dataDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{A4499AF4-AC54-CA42-8A44-D3442A1E53CF}" name="CPC" dataDxfId="157"/>
+    <tableColumn id="5" xr3:uid="{C52B8664-213C-B34E-90E5-E0B9C24BDF6F}" name="PD" dataDxfId="156"/>
+    <tableColumn id="6" xr3:uid="{2A86F28E-29C5-B444-BC11-A45C0D4DB6C4}" name="SD" dataDxfId="155"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3338,11 +3461,11 @@
   <autoFilter ref="A361:F363" xr:uid="{C716696E-A16E-3F4B-9353-B6DE44744036}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4A5397EF-0CF6-E144-BA74-053A47927FEE}" name="#"/>
-    <tableColumn id="2" xr3:uid="{4B283485-6E41-B749-BF24-420220818E0E}" name="KW" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{2F7F200C-8B71-124F-8C4A-AFB9EA61FC34}" name="VOLUME" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{B39C4444-CE70-374A-A6B4-BB99F8B239BB}" name="CPC" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{3AF8CF54-3FA1-EE4F-A683-BF02D40C681B}" name="PD" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{C8E43254-08F1-4548-9DF5-24F730CD1DE4}" name="SD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{4B283485-6E41-B749-BF24-420220818E0E}" name="KW" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{2F7F200C-8B71-124F-8C4A-AFB9EA61FC34}" name="VOLUME" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{B39C4444-CE70-374A-A6B4-BB99F8B239BB}" name="CPC" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{3AF8CF54-3FA1-EE4F-A683-BF02D40C681B}" name="PD" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{C8E43254-08F1-4548-9DF5-24F730CD1DE4}" name="SD" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3398,11 +3521,11 @@
   <autoFilter ref="A395:F396" xr:uid="{E1ABF0D9-1B82-D245-AB49-B1E6E7C794DD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5AD74509-C6BC-1040-A108-BF0B1E6DEB87}" name="#"/>
-    <tableColumn id="2" xr3:uid="{24E9E449-C266-5941-8312-29B99050AC2A}" name="KW" dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{8E815F5F-D516-6B42-8054-E558941EB56B}" name="VOLUME" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{2EAE2FA4-58F0-4449-9BF9-2D55992E0A31}" name="CPC" dataDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{99BCB5E3-2257-F344-A57E-65B9DBACCB15}" name="PD" dataDxfId="136"/>
-    <tableColumn id="6" xr3:uid="{51DC1A12-5999-0F43-98B0-EBF8E297BC80}" name="SD" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{24E9E449-C266-5941-8312-29B99050AC2A}" name="KW" dataDxfId="154"/>
+    <tableColumn id="3" xr3:uid="{8E815F5F-D516-6B42-8054-E558941EB56B}" name="VOLUME" dataDxfId="153"/>
+    <tableColumn id="4" xr3:uid="{2EAE2FA4-58F0-4449-9BF9-2D55992E0A31}" name="CPC" dataDxfId="152"/>
+    <tableColumn id="5" xr3:uid="{99BCB5E3-2257-F344-A57E-65B9DBACCB15}" name="PD" dataDxfId="151"/>
+    <tableColumn id="6" xr3:uid="{51DC1A12-5999-0F43-98B0-EBF8E297BC80}" name="SD" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3413,71 +3536,71 @@
   <autoFilter ref="A399:F400" xr:uid="{258302AC-F1DF-CA48-887A-45506D3B0938}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{573199EB-F122-E54E-B615-7F620A4E0947}" name="#"/>
-    <tableColumn id="2" xr3:uid="{B215C889-9AA0-BC41-8B86-CC5233E98491}" name="KW" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{5FBA2203-B030-0A42-9A46-65E7F2D457EC}" name="VOLUME" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{6DC0A2F3-850B-F645-B4E0-BBEF8ECB2991}" name="CPC" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{AC957D1B-7210-5140-8CED-3FE636E39E39}" name="PD" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{4D603F8A-49D0-D445-A34A-8493CD1D0125}" name="SD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B215C889-9AA0-BC41-8B86-CC5233E98491}" name="KW" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{5FBA2203-B030-0A42-9A46-65E7F2D457EC}" name="VOLUME" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{6DC0A2F3-850B-F645-B4E0-BBEF8ECB2991}" name="CPC" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{AC957D1B-7210-5140-8CED-3FE636E39E39}" name="PD" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{4D603F8A-49D0-D445-A34A-8493CD1D0125}" name="SD" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{02D23F88-327F-BE42-8257-6FD3391D656B}" name="Table6" displayName="Table6" ref="A67:F76" totalsRowShown="0" headerRowDxfId="173" dataDxfId="174">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{02D23F88-327F-BE42-8257-6FD3391D656B}" name="Table6" displayName="Table6" ref="A67:F76" totalsRowShown="0" headerRowDxfId="188" dataDxfId="189">
   <autoFilter ref="A67:F76" xr:uid="{BC7DFAB6-8BA6-704C-B790-23A3C4748E5F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{880CBFAA-36A2-874D-8AA4-C09FE696FF00}" name="#"/>
     <tableColumn id="2" xr3:uid="{490F995D-E92F-964E-A5B6-8BAA9499424C}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{6FFAB101-9047-FF46-934B-398B65EB3E43}" name="VOLUME" dataDxfId="178"/>
-    <tableColumn id="4" xr3:uid="{D00EF6C7-8B93-CD44-8985-FEB8E138E3F2}" name="CPC" dataDxfId="177"/>
-    <tableColumn id="5" xr3:uid="{94C4271F-E3BE-BD42-B077-4D1D09914322}" name="PD" dataDxfId="176"/>
-    <tableColumn id="6" xr3:uid="{047B9427-23EA-4D48-A22E-B0E6DA1C4F22}" name="SD" dataDxfId="175"/>
+    <tableColumn id="3" xr3:uid="{6FFAB101-9047-FF46-934B-398B65EB3E43}" name="VOLUME" dataDxfId="193"/>
+    <tableColumn id="4" xr3:uid="{D00EF6C7-8B93-CD44-8985-FEB8E138E3F2}" name="CPC" dataDxfId="192"/>
+    <tableColumn id="5" xr3:uid="{94C4271F-E3BE-BD42-B077-4D1D09914322}" name="PD" dataDxfId="191"/>
+    <tableColumn id="6" xr3:uid="{047B9427-23EA-4D48-A22E-B0E6DA1C4F22}" name="SD" dataDxfId="190"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{53E7CD98-E878-1B40-8A7D-834CDEA5211C}" name="Table7" displayName="Table7" ref="A79:F81" totalsRowShown="0" headerRowDxfId="171" dataDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{53E7CD98-E878-1B40-8A7D-834CDEA5211C}" name="Table7" displayName="Table7" ref="A79:F81" totalsRowShown="0" headerRowDxfId="186" dataDxfId="187">
   <autoFilter ref="A79:F81" xr:uid="{2CD78512-5E22-0B4A-8BE8-F391F61348D6}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9B309D2C-ED15-0547-B71A-7395F0F8857A}" name="#"/>
-    <tableColumn id="2" xr3:uid="{894DF4D9-C9E8-AB47-8B7C-BB2F4497A10A}" name="KW" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{54C9E742-B22C-E74E-85A4-6B6C26C8EEDA}" name="VOLUME" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{71C95C8A-91D3-3545-86F4-EC48906F2757}" name="CPC" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{EED0FBFF-0F6D-5642-9CF6-4054D7D47EDF}" name="PD" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{E85B43F9-EC9D-1445-8B45-9031F45AB06E}" name="SD" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{894DF4D9-C9E8-AB47-8B7C-BB2F4497A10A}" name="KW" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{54C9E742-B22C-E74E-85A4-6B6C26C8EEDA}" name="VOLUME" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{71C95C8A-91D3-3545-86F4-EC48906F2757}" name="CPC" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{EED0FBFF-0F6D-5642-9CF6-4054D7D47EDF}" name="PD" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{E85B43F9-EC9D-1445-8B45-9031F45AB06E}" name="SD" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{36461A84-FB1A-0540-9112-4CD67EA72ADF}" name="Table8" displayName="Table8" ref="A84:F90" totalsRowShown="0" headerRowDxfId="165" dataDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{36461A84-FB1A-0540-9112-4CD67EA72ADF}" name="Table8" displayName="Table8" ref="A84:F90" totalsRowShown="0" headerRowDxfId="180" dataDxfId="181">
   <autoFilter ref="A84:F90" xr:uid="{69D2BCC8-0473-C740-BF25-47E773E18FD8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C673C655-553C-7240-821B-75AE6D0932DA}" name="#"/>
     <tableColumn id="2" xr3:uid="{E71D5422-955C-364E-A864-4CD804F9AF51}" name="KW"/>
-    <tableColumn id="3" xr3:uid="{6FDB4FD1-A82F-EE43-B6A9-34DB41DE2B43}" name="VOLUME" dataDxfId="170"/>
-    <tableColumn id="4" xr3:uid="{2C77C2F3-9602-C84E-9C3F-DE0D7F663514}" name="CPC" dataDxfId="169"/>
-    <tableColumn id="5" xr3:uid="{47D00704-BE8F-4440-BF1D-49398F51C47B}" name="PD" dataDxfId="168"/>
-    <tableColumn id="6" xr3:uid="{568B9501-3C39-4D49-AE83-5463E5AA43F9}" name="SD" dataDxfId="167"/>
+    <tableColumn id="3" xr3:uid="{6FDB4FD1-A82F-EE43-B6A9-34DB41DE2B43}" name="VOLUME" dataDxfId="185"/>
+    <tableColumn id="4" xr3:uid="{2C77C2F3-9602-C84E-9C3F-DE0D7F663514}" name="CPC" dataDxfId="184"/>
+    <tableColumn id="5" xr3:uid="{47D00704-BE8F-4440-BF1D-49398F51C47B}" name="PD" dataDxfId="183"/>
+    <tableColumn id="6" xr3:uid="{568B9501-3C39-4D49-AE83-5463E5AA43F9}" name="SD" dataDxfId="182"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2177E182-69D1-FB47-9F61-5EEEF5009111}" name="Table9" displayName="Table9" ref="A93:F95" totalsRowShown="0" headerRowDxfId="164">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2177E182-69D1-FB47-9F61-5EEEF5009111}" name="Table9" displayName="Table9" ref="A93:F95" totalsRowShown="0" headerRowDxfId="179">
   <autoFilter ref="A93:F95" xr:uid="{713105D6-C097-A540-96E2-74085C8D355C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{32A9904F-5DF1-D141-BFB2-961239EF0309}" name="#"/>
-    <tableColumn id="2" xr3:uid="{C2231F29-B1B8-0B4F-B4C6-B50671407CC2}" name="KW" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{F826761F-77B6-DF42-A635-F0AFBC0AAD5F}" name="VOLUME" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{3F2823FB-FA28-5E44-A2CD-8F2E82ABEC26}" name="CPC" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{AB2C69DF-3990-CE45-9D49-83E82C772525}" name="PD" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{116930A3-9A25-854A-AC6E-697E7BB1C743}" name="SD" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{C2231F29-B1B8-0B4F-B4C6-B50671407CC2}" name="KW" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{F826761F-77B6-DF42-A635-F0AFBC0AAD5F}" name="VOLUME" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{3F2823FB-FA28-5E44-A2CD-8F2E82ABEC26}" name="CPC" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{AB2C69DF-3990-CE45-9D49-83E82C772525}" name="PD" dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{116930A3-9A25-854A-AC6E-697E7BB1C743}" name="SD" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3782,8 +3905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA13C51-9151-4F4E-9D73-B21191CD2586}">
   <dimension ref="A1:J400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:F81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5925,19 +6048,19 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
+      <c r="B148" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="4">
         <v>40</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="4">
         <v>5</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="4">
         <v>15</v>
       </c>
     </row>
@@ -6019,36 +6142,36 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
+      <c r="B158" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="4">
         <v>20</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="4">
         <v>18</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
+      <c r="B159" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="4">
         <v>10</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="4">
         <v>15</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="4">
         <v>18</v>
       </c>
     </row>
@@ -6301,19 +6424,19 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B181" t="s">
+      <c r="B181" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="4">
         <v>50</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="4">
         <v>16</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="4">
         <v>23</v>
       </c>
     </row>
@@ -6395,19 +6518,19 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B190" t="s">
+      <c r="B190" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="4">
         <v>70</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="4">
         <v>91</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="4">
         <v>33</v>
       </c>
     </row>
@@ -6445,24 +6568,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B193" t="s">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B193" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="4">
         <v>10</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="4">
         <v>59</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B194" s="4" t="s">
         <v>265</v>
       </c>
@@ -6479,7 +6602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B195" s="4" t="s">
         <v>267</v>
       </c>
@@ -6496,7 +6619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>159</v>
       </c>
@@ -6506,7 +6629,7 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -6526,7 +6649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>158</v>
       </c>
@@ -6542,8 +6665,14 @@
       <c r="F199">
         <v>44</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G199" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>162</v>
       </c>
@@ -6553,7 +6682,7 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -6573,7 +6702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B203" s="4" t="s">
         <v>160</v>
       </c>
@@ -6590,7 +6719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B204" s="4" t="s">
         <v>269</v>
       </c>
@@ -6607,7 +6736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>168</v>
       </c>
@@ -6617,7 +6746,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -6637,7 +6766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B208" s="4" t="s">
         <v>164</v>
       </c>
@@ -6834,36 +6963,36 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B223" t="s">
+      <c r="B223" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="4">
         <v>20</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="4">
         <v>53</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
+      <c r="B224" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="4">
         <v>20</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="4">
         <v>25</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="4">
         <v>13</v>
       </c>
     </row>
@@ -7214,36 +7343,36 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B257" t="s">
+      <c r="B257" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="4">
         <v>20</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="4">
         <v>100</v>
       </c>
-      <c r="F257">
+      <c r="F257" s="4">
         <v>36</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B258" t="s">
+      <c r="B258" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="4">
         <v>10</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="4">
         <v>94</v>
       </c>
-      <c r="F258">
+      <c r="F258" s="4">
         <v>47</v>
       </c>
     </row>
@@ -8589,19 +8718,19 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B373" t="s">
+      <c r="B373" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="4">
         <v>10</v>
       </c>
-      <c r="D373" t="s">
+      <c r="D373" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E373">
+      <c r="E373" s="4">
         <v>57</v>
       </c>
-      <c r="F373">
+      <c r="F373" s="4">
         <v>23</v>
       </c>
     </row>
@@ -8699,36 +8828,36 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B382" t="s">
+      <c r="B382" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="4">
         <v>40</v>
       </c>
-      <c r="D382" t="s">
+      <c r="D382" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E382">
+      <c r="E382" s="4">
         <v>7</v>
       </c>
-      <c r="F382">
+      <c r="F382" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B383" t="s">
+      <c r="B383" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="4">
         <v>40</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E383">
+      <c r="E383" s="4">
         <v>0</v>
       </c>
-      <c r="F383">
+      <c r="F383" s="4">
         <v>18</v>
       </c>
     </row>
@@ -8784,19 +8913,19 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B387" t="s">
+      <c r="B387" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="4">
         <v>10</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E387">
+      <c r="E387" s="4">
         <v>0</v>
       </c>
-      <c r="F387">
+      <c r="F387" s="4">
         <v>5</v>
       </c>
     </row>
@@ -8835,53 +8964,53 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B390" t="s">
+      <c r="B390" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="4">
         <v>20</v>
       </c>
-      <c r="D390" t="s">
+      <c r="D390" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E390">
+      <c r="E390" s="4">
         <v>6</v>
       </c>
-      <c r="F390">
+      <c r="F390" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B391" t="s">
+      <c r="B391" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="4">
         <v>30</v>
       </c>
-      <c r="D391" t="s">
+      <c r="D391" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E391">
+      <c r="E391" s="4">
         <v>27</v>
       </c>
-      <c r="F391">
+      <c r="F391" s="4">
         <v>26</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B392" t="s">
+      <c r="B392" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="4">
         <v>40</v>
       </c>
-      <c r="D392" t="s">
+      <c r="D392" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E392">
+      <c r="E392" s="4">
         <v>2</v>
       </c>
-      <c r="F392">
+      <c r="F392" s="4">
         <v>14</v>
       </c>
     </row>
@@ -8972,12 +9101,13 @@
       <c r="F400" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="60">
     <mergeCell ref="B366:F366"/>
     <mergeCell ref="B375:F375"/>
     <mergeCell ref="A380:F380"/>
     <mergeCell ref="A394:F394"/>
     <mergeCell ref="A398:F398"/>
+    <mergeCell ref="G199:J199"/>
     <mergeCell ref="G59:J59"/>
     <mergeCell ref="A318:F318"/>
     <mergeCell ref="A330:F330"/>

--- a/kws/kws-priradene.xlsx
+++ b/kws/kws-priradene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matusrebros/super/kws/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C23F84-5A65-3144-B213-17B40412A261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA29ECF-3E47-514E-9D7B-2826F231FA1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1460" windowWidth="28040" windowHeight="17440" xr2:uid="{24AB14E7-762D-AE4E-B4A7-B13D6B471532}"/>
   </bookViews>
@@ -873,9 +873,6 @@
     <t>https://wy.sk/blog/ako-vytvorit-web-stranku/</t>
   </si>
   <si>
-    <t>Tvorba internetovej web stránky | #1 na slovenskom trhu | 98,7% spokojných klientov</t>
-  </si>
-  <si>
     <t>PPC</t>
   </si>
   <si>
@@ -1132,6 +1129,9 @@
   </si>
   <si>
     <t>pridať do sekcie TVORBA WEB STRÁNOK</t>
+  </si>
+  <si>
+    <t>KONTROLA GRAMATIKY</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1179,6 +1179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,7 +1217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1235,6 +1241,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3906,7 +3914,7 @@
   <dimension ref="A1:J400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4007,7 +4015,7 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4031,7 +4039,7 @@
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4055,7 +4063,7 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4077,6 +4085,10 @@
       <c r="F8" s="1">
         <v>20</v>
       </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -4215,7 +4227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -4225,7 +4237,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4245,7 +4257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4285,7 +4297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4305,7 +4317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -4324,11 +4336,8 @@
       <c r="F24" s="12">
         <v>31</v>
       </c>
-      <c r="H24" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>214</v>
       </c>
@@ -4345,7 +4354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>229</v>
       </c>
@@ -4362,7 +4371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>278</v>
       </c>
@@ -4379,7 +4388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>279</v>
       </c>
@@ -4396,13 +4405,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -4412,7 +4421,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4432,7 +4441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6386,7 +6395,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B177" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
@@ -6666,7 +6675,7 @@
         <v>44</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -7937,7 +7946,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -7967,13 +7976,13 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B320" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C320" s="8">
         <v>390</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E320" s="8">
         <v>49</v>
@@ -7984,13 +7993,13 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C321">
         <v>10</v>
       </c>
       <c r="D321" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E321">
         <v>62</v>
@@ -8001,7 +8010,7 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C322">
         <v>10</v>
@@ -8018,13 +8027,13 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B323" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C323" s="8">
         <v>390</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E323" s="8">
         <v>81</v>
@@ -8035,13 +8044,13 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B324" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C324" s="8">
         <v>20</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E324" s="8">
         <v>83</v>
@@ -8069,7 +8078,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C326">
         <v>10</v>
@@ -8086,7 +8095,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C327">
         <v>10</v>
@@ -8103,7 +8112,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -8133,13 +8142,13 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B332" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C332" s="8">
         <v>880</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E332" s="8">
         <v>44</v>
@@ -8150,13 +8159,13 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B333" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C333" s="8">
         <v>110</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E333" s="8">
         <v>48</v>
@@ -8167,13 +8176,13 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B334" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C334" s="8">
         <v>110</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E334" s="8">
         <v>14</v>
@@ -8185,13 +8194,13 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C335">
         <v>90</v>
       </c>
       <c r="D335" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E335">
         <v>16</v>
@@ -8203,13 +8212,13 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B336" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C336" s="8">
         <v>70</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E336" s="8">
         <v>37</v>
@@ -8221,7 +8230,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B337" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C337" s="8">
         <v>50</v>
@@ -8239,13 +8248,13 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B338" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C338" s="8">
         <v>20</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E338" s="8">
         <v>38</v>
@@ -8260,7 +8269,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -8290,13 +8299,13 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C343">
         <v>260</v>
       </c>
       <c r="D343" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E343">
         <v>44</v>
@@ -8307,13 +8316,13 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B344" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C344" s="4">
         <v>260</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E344" s="4">
         <v>23</v>
@@ -8324,13 +8333,13 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C345">
         <v>210</v>
       </c>
       <c r="D345" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E345">
         <v>13</v>
@@ -8341,7 +8350,7 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C346">
         <v>90</v>
@@ -8358,13 +8367,13 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C347">
         <v>90</v>
       </c>
       <c r="D347" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E347">
         <v>40</v>
@@ -8375,13 +8384,13 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C348">
         <v>70</v>
       </c>
       <c r="D348" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E348">
         <v>33</v>
@@ -8392,13 +8401,13 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C349">
         <v>10</v>
       </c>
       <c r="D349" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E349">
         <v>87</v>
@@ -8409,7 +8418,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C350">
         <v>20</v>
@@ -8426,13 +8435,13 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C351">
         <v>10</v>
       </c>
       <c r="D351" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E351">
         <v>26</v>
@@ -8443,7 +8452,7 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C352">
         <v>30</v>
@@ -8460,7 +8469,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C353">
         <v>20</v>
@@ -8477,7 +8486,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -8507,13 +8516,13 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B357" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C357" s="4">
         <v>70</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E357" s="4">
         <v>37</v>
@@ -8524,7 +8533,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B358" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C358" s="4">
         <v>10</v>
@@ -8541,7 +8550,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -8571,13 +8580,13 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B362" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C362" s="4">
         <v>110</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E362" s="4">
         <v>16</v>
@@ -8588,13 +8597,13 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B363" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C363" s="4">
         <v>90</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E363" s="4">
         <v>5</v>
@@ -8605,7 +8614,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B366" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -8634,7 +8643,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B368" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C368" s="4">
         <v>90</v>
@@ -8651,13 +8660,13 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B369" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C369" s="4">
         <v>70</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E369" s="4">
         <v>9</v>
@@ -8668,7 +8677,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B370" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C370" s="4">
         <v>40</v>
@@ -8685,13 +8694,13 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B371" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C371" s="4">
         <v>20</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E371" s="4">
         <v>32</v>
@@ -8702,13 +8711,13 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B372" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C372" s="4">
         <v>10</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E372" s="4">
         <v>29</v>
@@ -8719,7 +8728,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B373" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C373" s="4">
         <v>10</v>
@@ -8736,7 +8745,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B375" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -8765,13 +8774,13 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C377">
         <v>70</v>
       </c>
       <c r="D377" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E377">
         <v>14</v>
@@ -8782,7 +8791,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C378">
         <v>10</v>
@@ -8799,7 +8808,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -8829,7 +8838,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B382" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C382" s="4">
         <v>40</v>
@@ -8846,7 +8855,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B383" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C383" s="4">
         <v>40</v>
@@ -8863,7 +8872,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B384" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C384" s="4">
         <v>20</v>
@@ -8880,7 +8889,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B385" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C385" s="4">
         <v>10</v>
@@ -8897,7 +8906,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B386" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C386" s="4">
         <v>10</v>
@@ -8914,7 +8923,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B387" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C387" s="4">
         <v>10</v>
@@ -8931,7 +8940,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B388" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C388" s="4">
         <v>10</v>
@@ -8948,7 +8957,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B389" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C389" s="4">
         <v>10</v>
@@ -8965,7 +8974,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B390" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C390" s="4">
         <v>20</v>
@@ -8982,7 +8991,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B391" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C391" s="4">
         <v>30</v>
@@ -8999,7 +9008,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B392" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C392" s="4">
         <v>40</v>
@@ -9016,7 +9025,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -9046,13 +9055,13 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B396" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C396" s="4">
         <v>1300</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E396" s="4">
         <v>56</v>
@@ -9063,7 +9072,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -9093,7 +9102,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B400" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C400" s="8"/>
       <c r="D400" s="8"/>
